--- a/documentation/PerformanceApplicativo.xlsx
+++ b/documentation/PerformanceApplicativo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giacomoponzuoli/Desktop/unifi_phd/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73DDD20C-6ECD-BB49-B2C6-912EB50CEE30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E9634D-3D37-C64A-B620-B6ABF63AFA89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{13C5857E-3D3E-1E45-AA8C-1ACFF6915785}"/>
   </bookViews>
@@ -708,66 +708,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="it-IT"/>
-              <a:t>Andamento</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="it-IT" baseline="0"/>
-              <a:t> latenza in relazione al numero di package</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -1696,16 +1637,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2032,8 +1973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4D86C7-BAC5-3E45-99C7-0E8BFC9440CB}">
   <dimension ref="B3:S80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/documentation/PerformanceApplicativo.xlsx
+++ b/documentation/PerformanceApplicativo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giacomoponzuoli/Desktop/unifi_phd/documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattiamarilli/Progetti/unifi_phd/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E9634D-3D37-C64A-B620-B6ABF63AFA89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D48AE3D-8686-2441-85C7-2C4C4F39A26B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{13C5857E-3D3E-1E45-AA8C-1ACFF6915785}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{13C5857E-3D3E-1E45-AA8C-1ACFF6915785}"/>
   </bookViews>
   <sheets>
     <sheet name="Performance" sheetId="1" r:id="rId1"/>
@@ -757,16 +757,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>16.413145539906104</c:v>
+                  <c:v>16.316901408450704</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35.777777777777779</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42.333333333333336</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>99.833333333333343</c:v>
+                  <c:v>97.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1973,8 +1973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4D86C7-BAC5-3E45-99C7-0E8BFC9440CB}">
   <dimension ref="B3:S80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2033,12 +2033,10 @@
       <c r="F4" s="16">
         <v>47</v>
       </c>
-      <c r="G4" s="28">
-        <v>45</v>
-      </c>
+      <c r="G4" s="28"/>
       <c r="H4" s="16">
         <f>AVERAGE(E4:G4)</f>
-        <v>42.333333333333336</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.2">
@@ -2057,12 +2055,10 @@
       <c r="F5" s="17">
         <v>18</v>
       </c>
-      <c r="G5" s="28">
-        <v>17</v>
-      </c>
+      <c r="G5" s="28"/>
       <c r="H5" s="16">
         <f t="shared" ref="H5:H68" si="0">AVERAGE(E5:G5)</f>
-        <v>16.666666666666668</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="6" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2081,12 +2077,10 @@
       <c r="F6" s="17">
         <v>15</v>
       </c>
-      <c r="G6" s="28">
-        <v>13</v>
-      </c>
+      <c r="G6" s="28"/>
       <c r="H6" s="16">
         <f>AVERAGE(E6:G6)</f>
-        <v>16.666666666666668</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="7" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2105,12 +2099,10 @@
       <c r="F7" s="17">
         <v>16</v>
       </c>
-      <c r="G7" s="28">
-        <v>37</v>
-      </c>
+      <c r="G7" s="28"/>
       <c r="H7" s="16">
         <f t="shared" si="0"/>
-        <v>23.333333333333332</v>
+        <v>16.5</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>88</v>
@@ -2138,12 +2130,10 @@
       <c r="F8" s="17">
         <v>38</v>
       </c>
-      <c r="G8" s="28">
-        <v>32</v>
-      </c>
+      <c r="G8" s="28"/>
       <c r="H8" s="16">
         <f t="shared" si="0"/>
-        <v>35.666666666666664</v>
+        <v>37.5</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>3</v>
@@ -2173,12 +2163,10 @@
       <c r="F9" s="17">
         <v>79</v>
       </c>
-      <c r="G9" s="28">
-        <v>86</v>
-      </c>
+      <c r="G9" s="28"/>
       <c r="H9" s="16">
         <f t="shared" si="0"/>
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="K9" s="8" t="s">
         <v>20</v>
@@ -2208,12 +2196,10 @@
       <c r="F10" s="17">
         <v>20</v>
       </c>
-      <c r="G10" s="28">
-        <v>20</v>
-      </c>
+      <c r="G10" s="28"/>
       <c r="H10" s="16">
         <f t="shared" si="0"/>
-        <v>19.333333333333332</v>
+        <v>19</v>
       </c>
       <c r="K10" s="8" t="s">
         <v>54</v>
@@ -2243,12 +2229,10 @@
       <c r="F11" s="17">
         <v>18</v>
       </c>
-      <c r="G11" s="28">
-        <v>14</v>
-      </c>
+      <c r="G11" s="28"/>
       <c r="H11" s="16">
         <f t="shared" si="0"/>
-        <v>16.333333333333332</v>
+        <v>17.5</v>
       </c>
       <c r="K11" s="9" t="s">
         <v>66</v>
@@ -2278,9 +2262,7 @@
       <c r="F12" s="17">
         <v>20</v>
       </c>
-      <c r="G12" s="28">
-        <v>19</v>
-      </c>
+      <c r="G12" s="28"/>
       <c r="H12" s="16">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2302,9 +2284,7 @@
       <c r="F13" s="17">
         <v>16</v>
       </c>
-      <c r="G13" s="28">
-        <v>18</v>
-      </c>
+      <c r="G13" s="28"/>
       <c r="H13" s="16">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2326,12 +2306,10 @@
       <c r="F14" s="17">
         <v>20</v>
       </c>
-      <c r="G14" s="28">
-        <v>20</v>
-      </c>
+      <c r="G14" s="28"/>
       <c r="H14" s="16">
         <f t="shared" si="0"/>
-        <v>18.333333333333332</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.2">
@@ -2350,19 +2328,17 @@
       <c r="F15" s="17">
         <v>14</v>
       </c>
-      <c r="G15" s="28">
-        <v>14</v>
-      </c>
+      <c r="G15" s="28"/>
       <c r="H15" s="16">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="R15">
         <v>1</v>
       </c>
       <c r="S15">
         <f>AVERAGE(H5:H7,H10:H16,H18:H30,H32:H60,H62:H80)</f>
-        <v>16.413145539906104</v>
+        <v>16.316901408450704</v>
       </c>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.2">
@@ -2381,9 +2357,7 @@
       <c r="F16" s="17">
         <v>17</v>
       </c>
-      <c r="G16" s="28">
-        <v>19</v>
-      </c>
+      <c r="G16" s="28"/>
       <c r="H16" s="16">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2399,7 +2373,7 @@
       </c>
       <c r="S16">
         <f>AVERAGE(H8,H31,H61)</f>
-        <v>35.777777777777779</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.2">
@@ -2418,12 +2392,10 @@
       <c r="F17" s="17">
         <v>147</v>
       </c>
-      <c r="G17" s="28">
-        <v>123</v>
-      </c>
+      <c r="G17" s="28"/>
       <c r="H17" s="16">
         <f t="shared" si="0"/>
-        <v>127.66666666666667</v>
+        <v>130</v>
       </c>
       <c r="J17">
         <f>AVERAGE(E4, E8:E9, E17,E31,E61)</f>
@@ -2438,7 +2410,7 @@
       </c>
       <c r="S17">
         <f>AVERAGE(H4)</f>
-        <v>42.333333333333336</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.2">
@@ -2457,19 +2429,17 @@
       <c r="F18" s="17">
         <v>15</v>
       </c>
-      <c r="G18" s="28">
-        <v>10</v>
-      </c>
+      <c r="G18" s="28"/>
       <c r="H18" s="16">
         <f t="shared" si="0"/>
-        <v>11.666666666666666</v>
+        <v>12.5</v>
       </c>
       <c r="R18">
         <v>4</v>
       </c>
       <c r="S18">
         <f>AVERAGE(H9,H17)</f>
-        <v>99.833333333333343</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.2">
@@ -2488,12 +2458,10 @@
       <c r="F19" s="17">
         <v>27</v>
       </c>
-      <c r="G19" s="28">
-        <v>15</v>
-      </c>
+      <c r="G19" s="28"/>
       <c r="H19" s="16">
         <f t="shared" si="0"/>
-        <v>18.666666666666668</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.2">
@@ -2512,12 +2480,10 @@
       <c r="F20" s="17">
         <v>13</v>
       </c>
-      <c r="G20" s="28">
-        <v>18</v>
-      </c>
+      <c r="G20" s="28"/>
       <c r="H20" s="16">
         <f t="shared" si="0"/>
-        <v>13.666666666666666</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.2">
@@ -2536,12 +2502,10 @@
       <c r="F21" s="17">
         <v>13</v>
       </c>
-      <c r="G21" s="28">
-        <v>12</v>
-      </c>
+      <c r="G21" s="28"/>
       <c r="H21" s="16">
         <f t="shared" si="0"/>
-        <v>14.666666666666666</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.2">
@@ -2560,12 +2524,10 @@
       <c r="F22" s="17">
         <v>10</v>
       </c>
-      <c r="G22" s="28">
-        <v>14</v>
-      </c>
+      <c r="G22" s="28"/>
       <c r="H22" s="16">
         <f t="shared" si="0"/>
-        <v>11.666666666666666</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.2">
@@ -2584,12 +2546,10 @@
       <c r="F23" s="17">
         <v>11</v>
       </c>
-      <c r="G23" s="28">
-        <v>9</v>
-      </c>
+      <c r="G23" s="28"/>
       <c r="H23" s="16">
         <f t="shared" si="0"/>
-        <v>12.666666666666666</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.2">
@@ -2608,9 +2568,7 @@
       <c r="F24" s="17">
         <v>11</v>
       </c>
-      <c r="G24" s="28">
-        <v>15</v>
-      </c>
+      <c r="G24" s="28"/>
       <c r="H24" s="16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2632,12 +2590,10 @@
       <c r="F25" s="17">
         <v>12</v>
       </c>
-      <c r="G25" s="28">
-        <v>10</v>
-      </c>
+      <c r="G25" s="28"/>
       <c r="H25" s="16">
         <f t="shared" si="0"/>
-        <v>11.333333333333334</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.2">
@@ -2656,12 +2612,10 @@
       <c r="F26" s="17">
         <v>19</v>
       </c>
-      <c r="G26" s="28">
-        <v>16</v>
-      </c>
+      <c r="G26" s="28"/>
       <c r="H26" s="16">
         <f t="shared" si="0"/>
-        <v>17.666666666666668</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.2">
@@ -2680,12 +2634,10 @@
       <c r="F27" s="17">
         <v>16</v>
       </c>
-      <c r="G27" s="28">
-        <v>14</v>
-      </c>
+      <c r="G27" s="28"/>
       <c r="H27" s="16">
         <f t="shared" si="0"/>
-        <v>13.666666666666666</v>
+        <v>13.5</v>
       </c>
       <c r="J27" s="25" t="s">
         <v>94</v>
@@ -2716,28 +2668,26 @@
       <c r="F28" s="17">
         <v>11</v>
       </c>
-      <c r="G28" s="28">
-        <v>13</v>
-      </c>
+      <c r="G28" s="28"/>
       <c r="H28" s="16">
         <f t="shared" si="0"/>
-        <v>12.666666666666666</v>
+        <v>12.5</v>
       </c>
       <c r="J28" s="22">
         <f>AVERAGE(H5:H7,H10:H16,H18:H30,H32:H60,H62:H80)</f>
-        <v>16.413145539906104</v>
+        <v>16.316901408450704</v>
       </c>
       <c r="K28" s="23">
         <f>AVERAGE(H8,H31,H61)</f>
-        <v>35.777777777777779</v>
+        <v>38</v>
       </c>
       <c r="L28" s="23">
         <f>AVERAGE(H4)</f>
-        <v>42.333333333333336</v>
+        <v>41</v>
       </c>
       <c r="M28" s="24">
         <f>AVERAGE(H9,H17)</f>
-        <v>99.833333333333343</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.2">
@@ -2756,12 +2706,10 @@
       <c r="F29" s="17">
         <v>15</v>
       </c>
-      <c r="G29" s="28">
-        <v>19</v>
-      </c>
+      <c r="G29" s="28"/>
       <c r="H29" s="16">
         <f t="shared" si="0"/>
-        <v>17.333333333333332</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.2">
@@ -2780,12 +2728,10 @@
       <c r="F30" s="17">
         <v>12</v>
       </c>
-      <c r="G30" s="28">
-        <v>14</v>
-      </c>
+      <c r="G30" s="28"/>
       <c r="H30" s="16">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.2">
@@ -2804,12 +2750,10 @@
       <c r="F31" s="17">
         <v>38</v>
       </c>
-      <c r="G31" s="28">
-        <v>36</v>
-      </c>
+      <c r="G31" s="28"/>
       <c r="H31" s="16">
         <f t="shared" si="0"/>
-        <v>36.333333333333336</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.2">
@@ -2828,12 +2772,10 @@
       <c r="F32" s="17">
         <v>37</v>
       </c>
-      <c r="G32" s="28">
-        <v>17</v>
-      </c>
+      <c r="G32" s="28"/>
       <c r="H32" s="16">
         <f t="shared" si="0"/>
-        <v>21.666666666666668</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.2">
@@ -2852,12 +2794,10 @@
       <c r="F33" s="17">
         <v>9</v>
       </c>
-      <c r="G33" s="28">
-        <v>19</v>
-      </c>
+      <c r="G33" s="28"/>
       <c r="H33" s="16">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.2">
@@ -2876,12 +2816,10 @@
       <c r="F34" s="17">
         <v>16</v>
       </c>
-      <c r="G34" s="28">
-        <v>20</v>
-      </c>
+      <c r="G34" s="28"/>
       <c r="H34" s="16">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.2">
@@ -2900,12 +2838,10 @@
       <c r="F35" s="17">
         <v>10</v>
       </c>
-      <c r="G35" s="28">
-        <v>13</v>
-      </c>
+      <c r="G35" s="28"/>
       <c r="H35" s="16">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.2">
@@ -2924,12 +2860,10 @@
       <c r="F36" s="17">
         <v>25</v>
       </c>
-      <c r="G36" s="28">
-        <v>11</v>
-      </c>
+      <c r="G36" s="28"/>
       <c r="H36" s="16">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.2">
@@ -2948,12 +2882,10 @@
       <c r="F37" s="17">
         <v>15</v>
       </c>
-      <c r="G37" s="28">
-        <v>19</v>
-      </c>
+      <c r="G37" s="28"/>
       <c r="H37" s="16">
         <f t="shared" si="0"/>
-        <v>16.333333333333332</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.2">
@@ -2972,12 +2904,10 @@
       <c r="F38" s="17">
         <v>17</v>
       </c>
-      <c r="G38" s="28">
-        <v>19</v>
-      </c>
+      <c r="G38" s="28"/>
       <c r="H38" s="16">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.2">
@@ -2996,12 +2926,10 @@
       <c r="F39" s="17">
         <v>15</v>
       </c>
-      <c r="G39" s="28">
-        <v>38</v>
-      </c>
+      <c r="G39" s="28"/>
       <c r="H39" s="16">
         <f t="shared" si="0"/>
-        <v>22.666666666666668</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.2">
@@ -3020,12 +2948,10 @@
       <c r="F40" s="17">
         <v>13</v>
       </c>
-      <c r="G40" s="28">
-        <v>16</v>
-      </c>
+      <c r="G40" s="28"/>
       <c r="H40" s="16">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.2">
@@ -3044,12 +2970,10 @@
       <c r="F41" s="17">
         <v>16</v>
       </c>
-      <c r="G41" s="28">
-        <v>16</v>
-      </c>
+      <c r="G41" s="28"/>
       <c r="H41" s="16">
         <f t="shared" si="0"/>
-        <v>13.666666666666666</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.2">
@@ -3068,12 +2992,10 @@
       <c r="F42" s="17">
         <v>13</v>
       </c>
-      <c r="G42" s="28">
-        <v>19</v>
-      </c>
+      <c r="G42" s="28"/>
       <c r="H42" s="16">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.2">
@@ -3092,12 +3014,10 @@
       <c r="F43" s="17">
         <v>18</v>
       </c>
-      <c r="G43" s="28">
-        <v>24</v>
-      </c>
+      <c r="G43" s="28"/>
       <c r="H43" s="16">
         <f t="shared" si="0"/>
-        <v>22.666666666666668</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.2">
@@ -3116,12 +3036,10 @@
       <c r="F44" s="17">
         <v>7</v>
       </c>
-      <c r="G44" s="28">
-        <v>12</v>
-      </c>
+      <c r="G44" s="28"/>
       <c r="H44" s="16">
         <f t="shared" si="0"/>
-        <v>22.333333333333332</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.2">
@@ -3140,12 +3058,10 @@
       <c r="F45" s="17">
         <v>12</v>
       </c>
-      <c r="G45" s="28">
-        <v>36</v>
-      </c>
+      <c r="G45" s="28"/>
       <c r="H45" s="16">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.2">
@@ -3164,12 +3080,10 @@
       <c r="F46" s="17">
         <v>12</v>
       </c>
-      <c r="G46" s="28">
-        <v>21</v>
-      </c>
+      <c r="G46" s="28"/>
       <c r="H46" s="16">
         <f t="shared" si="0"/>
-        <v>15.666666666666666</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.2">
@@ -3188,12 +3102,10 @@
       <c r="F47" s="17">
         <v>10</v>
       </c>
-      <c r="G47" s="28">
-        <v>18</v>
-      </c>
+      <c r="G47" s="28"/>
       <c r="H47" s="16">
         <f t="shared" si="0"/>
-        <v>14.666666666666666</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.2">
@@ -3212,12 +3124,10 @@
       <c r="F48" s="17">
         <v>17</v>
       </c>
-      <c r="G48" s="28">
-        <v>12</v>
-      </c>
+      <c r="G48" s="28"/>
       <c r="H48" s="16">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.2">
@@ -3236,9 +3146,7 @@
       <c r="F49" s="17">
         <v>18</v>
       </c>
-      <c r="G49" s="28">
-        <v>18</v>
-      </c>
+      <c r="G49" s="28"/>
       <c r="H49" s="16">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -3260,12 +3168,10 @@
       <c r="F50" s="17">
         <v>21</v>
       </c>
-      <c r="G50" s="28">
-        <v>16</v>
-      </c>
+      <c r="G50" s="28"/>
       <c r="H50" s="16">
         <f t="shared" si="0"/>
-        <v>17.666666666666668</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.2">
@@ -3284,12 +3190,10 @@
       <c r="F51" s="17">
         <v>14</v>
       </c>
-      <c r="G51" s="28">
-        <v>14</v>
-      </c>
+      <c r="G51" s="28"/>
       <c r="H51" s="16">
         <f t="shared" si="0"/>
-        <v>15.333333333333334</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.2">
@@ -3308,12 +3212,10 @@
       <c r="F52" s="17">
         <v>13</v>
       </c>
-      <c r="G52" s="28">
-        <v>11</v>
-      </c>
+      <c r="G52" s="28"/>
       <c r="H52" s="16">
         <f t="shared" si="0"/>
-        <v>12.666666666666666</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.2">
@@ -3332,12 +3234,10 @@
       <c r="F53" s="17">
         <v>13</v>
       </c>
-      <c r="G53" s="28">
-        <v>11</v>
-      </c>
+      <c r="G53" s="28"/>
       <c r="H53" s="16">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.2">
@@ -3356,12 +3256,10 @@
       <c r="F54" s="17">
         <v>14</v>
       </c>
-      <c r="G54" s="28">
-        <v>17</v>
-      </c>
+      <c r="G54" s="28"/>
       <c r="H54" s="16">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.2">
@@ -3380,12 +3278,10 @@
       <c r="F55" s="17">
         <v>14</v>
       </c>
-      <c r="G55" s="28">
-        <v>18</v>
-      </c>
+      <c r="G55" s="28"/>
       <c r="H55" s="16">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.2">
@@ -3404,12 +3300,10 @@
       <c r="F56" s="17">
         <v>19</v>
       </c>
-      <c r="G56" s="28">
-        <v>17</v>
-      </c>
+      <c r="G56" s="28"/>
       <c r="H56" s="16">
         <f t="shared" si="0"/>
-        <v>15.666666666666666</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.2">
@@ -3428,12 +3322,10 @@
       <c r="F57" s="17">
         <v>20</v>
       </c>
-      <c r="G57" s="28">
-        <v>14</v>
-      </c>
+      <c r="G57" s="28"/>
       <c r="H57" s="16">
         <f t="shared" si="0"/>
-        <v>14.333333333333334</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.2">
@@ -3452,12 +3344,10 @@
       <c r="F58" s="17">
         <v>16</v>
       </c>
-      <c r="G58" s="28">
-        <v>12</v>
-      </c>
+      <c r="G58" s="28"/>
       <c r="H58" s="16">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.2">
@@ -3476,12 +3366,10 @@
       <c r="F59" s="17">
         <v>17</v>
       </c>
-      <c r="G59" s="28">
-        <v>12</v>
-      </c>
+      <c r="G59" s="28"/>
       <c r="H59" s="16">
         <f t="shared" si="0"/>
-        <v>13.666666666666666</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.2">
@@ -3500,12 +3388,10 @@
       <c r="F60" s="17">
         <v>46</v>
       </c>
-      <c r="G60" s="28">
-        <v>14</v>
-      </c>
+      <c r="G60" s="28"/>
       <c r="H60" s="16">
         <f t="shared" si="0"/>
-        <v>25.666666666666668</v>
+        <v>31.5</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.2">
@@ -3524,12 +3410,10 @@
       <c r="F61" s="17">
         <v>26</v>
       </c>
-      <c r="G61" s="28">
-        <v>26</v>
-      </c>
+      <c r="G61" s="28"/>
       <c r="H61" s="16">
         <f t="shared" si="0"/>
-        <v>35.333333333333336</v>
+        <v>40</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.2">
@@ -3548,12 +3432,10 @@
       <c r="F62" s="17">
         <v>20</v>
       </c>
-      <c r="G62" s="28">
-        <v>35</v>
-      </c>
+      <c r="G62" s="28"/>
       <c r="H62" s="16">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.2">
@@ -3572,12 +3454,10 @@
       <c r="F63" s="17">
         <v>43</v>
       </c>
-      <c r="G63" s="28">
-        <v>11</v>
-      </c>
+      <c r="G63" s="28"/>
       <c r="H63" s="16">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.2">
@@ -3596,12 +3476,10 @@
       <c r="F64" s="17">
         <v>54</v>
       </c>
-      <c r="G64" s="28">
-        <v>18</v>
-      </c>
+      <c r="G64" s="28"/>
       <c r="H64" s="16">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.2">
@@ -3620,12 +3498,10 @@
       <c r="F65" s="17">
         <v>12</v>
       </c>
-      <c r="G65" s="28">
-        <v>12</v>
-      </c>
+      <c r="G65" s="28"/>
       <c r="H65" s="16">
         <f t="shared" si="0"/>
-        <v>12.333333333333334</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.2">
@@ -3644,12 +3520,10 @@
       <c r="F66" s="17">
         <v>13</v>
       </c>
-      <c r="G66" s="28">
-        <v>19</v>
-      </c>
+      <c r="G66" s="28"/>
       <c r="H66" s="16">
         <f t="shared" si="0"/>
-        <v>15.333333333333334</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.2">
@@ -3668,12 +3542,10 @@
       <c r="F67" s="17">
         <v>24</v>
       </c>
-      <c r="G67" s="28">
-        <v>15</v>
-      </c>
+      <c r="G67" s="28"/>
       <c r="H67" s="16">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.2">
@@ -3692,12 +3564,10 @@
       <c r="F68" s="17">
         <v>13</v>
       </c>
-      <c r="G68" s="28">
-        <v>16</v>
-      </c>
+      <c r="G68" s="28"/>
       <c r="H68" s="16">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.2">
@@ -3716,12 +3586,10 @@
       <c r="F69" s="17">
         <v>48</v>
       </c>
-      <c r="G69" s="28">
-        <v>18</v>
-      </c>
+      <c r="G69" s="28"/>
       <c r="H69" s="16">
         <f t="shared" ref="H69:H80" si="1">AVERAGE(E69:G69)</f>
-        <v>26.333333333333332</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.2">
@@ -3740,12 +3608,10 @@
       <c r="F70" s="17">
         <v>11</v>
       </c>
-      <c r="G70" s="28">
-        <v>16</v>
-      </c>
+      <c r="G70" s="28"/>
       <c r="H70" s="16">
         <f t="shared" si="1"/>
-        <v>14.333333333333334</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.2">
@@ -3764,12 +3630,10 @@
       <c r="F71" s="17">
         <v>14</v>
       </c>
-      <c r="G71" s="28">
-        <v>13</v>
-      </c>
+      <c r="G71" s="28"/>
       <c r="H71" s="16">
         <f t="shared" si="1"/>
-        <v>14.333333333333334</v>
+        <v>15</v>
       </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.2">
@@ -3788,12 +3652,10 @@
       <c r="F72" s="17">
         <v>13</v>
       </c>
-      <c r="G72" s="28">
-        <v>17</v>
-      </c>
+      <c r="G72" s="28"/>
       <c r="H72" s="16">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.2">
@@ -3812,12 +3674,10 @@
       <c r="F73" s="17">
         <v>16</v>
       </c>
-      <c r="G73" s="28">
-        <v>11</v>
-      </c>
+      <c r="G73" s="28"/>
       <c r="H73" s="16">
         <f t="shared" si="1"/>
-        <v>13.666666666666666</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.2">
@@ -3836,12 +3696,10 @@
       <c r="F74" s="17">
         <v>11</v>
       </c>
-      <c r="G74" s="28">
-        <v>9</v>
-      </c>
+      <c r="G74" s="28"/>
       <c r="H74" s="16">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.2">
@@ -3860,12 +3718,10 @@
       <c r="F75" s="17">
         <v>10</v>
       </c>
-      <c r="G75" s="28">
-        <v>15</v>
-      </c>
+      <c r="G75" s="28"/>
       <c r="H75" s="16">
         <f t="shared" si="1"/>
-        <v>12.666666666666666</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.2">
@@ -3884,12 +3740,10 @@
       <c r="F76" s="17">
         <v>14</v>
       </c>
-      <c r="G76" s="28">
-        <v>18</v>
-      </c>
+      <c r="G76" s="28"/>
       <c r="H76" s="16">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.2">
@@ -3908,9 +3762,7 @@
       <c r="F77" s="17">
         <v>15</v>
       </c>
-      <c r="G77" s="28">
-        <v>15</v>
-      </c>
+      <c r="G77" s="28"/>
       <c r="H77" s="16">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -3932,12 +3784,10 @@
       <c r="F78" s="17">
         <v>13</v>
       </c>
-      <c r="G78" s="28">
-        <v>16</v>
-      </c>
+      <c r="G78" s="28"/>
       <c r="H78" s="16">
         <f t="shared" si="1"/>
-        <v>14.666666666666666</v>
+        <v>14</v>
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.2">
@@ -3956,12 +3806,10 @@
       <c r="F79" s="17">
         <v>9</v>
       </c>
-      <c r="G79" s="28">
-        <v>16</v>
-      </c>
+      <c r="G79" s="28"/>
       <c r="H79" s="16">
         <f t="shared" si="1"/>
-        <v>13.333333333333334</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.2">
@@ -3980,12 +3828,10 @@
       <c r="F80" s="18">
         <v>8</v>
       </c>
-      <c r="G80" s="29">
-        <v>15</v>
-      </c>
+      <c r="G80" s="29"/>
       <c r="H80" s="30">
         <f t="shared" si="1"/>
-        <v>13.333333333333334</v>
+        <v>12.5</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/PerformanceApplicativo.xlsx
+++ b/documentation/PerformanceApplicativo.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattiamarilli/Progetti/unifi_phd/documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giacomoponzuoli/Desktop/unifi_phd/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D48AE3D-8686-2441-85C7-2C4C4F39A26B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E098488-8611-F14A-B4E2-C9F2B477401E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{13C5857E-3D3E-1E45-AA8C-1ACFF6915785}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15780" xr2:uid="{13C5857E-3D3E-1E45-AA8C-1ACFF6915785}"/>
   </bookViews>
   <sheets>
     <sheet name="Performance" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -349,6 +349,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -603,7 +604,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -668,12 +669,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1974,24 +1969,24 @@
   <dimension ref="B3:S80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="J16" sqref="J15:J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="40" customWidth="1"/>
-    <col min="3" max="3" width="56.1640625" customWidth="1"/>
-    <col min="4" max="4" width="26.83203125" customWidth="1"/>
-    <col min="5" max="5" width="30.33203125" customWidth="1"/>
-    <col min="6" max="6" width="28.33203125" customWidth="1"/>
-    <col min="7" max="7" width="29.33203125" customWidth="1"/>
-    <col min="8" max="8" width="25.1640625" customWidth="1"/>
-    <col min="9" max="9" width="20.1640625" customWidth="1"/>
-    <col min="10" max="10" width="23.83203125" customWidth="1"/>
-    <col min="11" max="11" width="19.33203125" customWidth="1"/>
-    <col min="12" max="12" width="15.33203125" customWidth="1"/>
-    <col min="13" max="13" width="18" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="14.6640625"/>
+    <col min="2" max="2" customWidth="true" width="40.0"/>
+    <col min="3" max="3" customWidth="true" width="56.1640625"/>
+    <col min="4" max="4" customWidth="true" width="26.83203125"/>
+    <col min="5" max="5" customWidth="true" width="30.33203125"/>
+    <col min="6" max="6" customWidth="true" width="28.33203125"/>
+    <col min="7" max="7" customWidth="true" width="29.33203125"/>
+    <col min="8" max="8" customWidth="true" width="25.1640625"/>
+    <col min="9" max="9" customWidth="true" width="20.1640625"/>
+    <col min="10" max="10" customWidth="true" width="23.83203125"/>
+    <col min="11" max="11" customWidth="true" width="19.33203125"/>
+    <col min="12" max="12" customWidth="true" width="15.33203125"/>
+    <col min="13" max="13" customWidth="true" width="18.0"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:19" ht="21" x14ac:dyDescent="0.25">
@@ -2033,7 +2028,9 @@
       <c r="F4" s="16">
         <v>47</v>
       </c>
-      <c r="G4" s="28"/>
+      <c r="G4" t="n" s="0">
+        <v>23.0</v>
+      </c>
       <c r="H4" s="16">
         <f>AVERAGE(E4:G4)</f>
         <v>41</v>
@@ -2055,7 +2052,9 @@
       <c r="F5" s="17">
         <v>18</v>
       </c>
-      <c r="G5" s="28"/>
+      <c r="G5" t="n" s="0">
+        <v>20.0</v>
+      </c>
       <c r="H5" s="16">
         <f t="shared" ref="H5:H68" si="0">AVERAGE(E5:G5)</f>
         <v>16.5</v>
@@ -2077,7 +2076,9 @@
       <c r="F6" s="17">
         <v>15</v>
       </c>
-      <c r="G6" s="28"/>
+      <c r="G6" t="n" s="0">
+        <v>18.0</v>
+      </c>
       <c r="H6" s="16">
         <f>AVERAGE(E6:G6)</f>
         <v>18.5</v>
@@ -2099,7 +2100,9 @@
       <c r="F7" s="17">
         <v>16</v>
       </c>
-      <c r="G7" s="28"/>
+      <c r="G7" t="n" s="0">
+        <v>47.0</v>
+      </c>
       <c r="H7" s="16">
         <f t="shared" si="0"/>
         <v>16.5</v>
@@ -2130,7 +2133,9 @@
       <c r="F8" s="17">
         <v>38</v>
       </c>
-      <c r="G8" s="28"/>
+      <c r="G8" t="n" s="0">
+        <v>31.0</v>
+      </c>
       <c r="H8" s="16">
         <f t="shared" si="0"/>
         <v>37.5</v>
@@ -2163,7 +2168,9 @@
       <c r="F9" s="17">
         <v>79</v>
       </c>
-      <c r="G9" s="28"/>
+      <c r="G9" t="n" s="0">
+        <v>10.0</v>
+      </c>
       <c r="H9" s="16">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -2196,7 +2203,9 @@
       <c r="F10" s="17">
         <v>20</v>
       </c>
-      <c r="G10" s="28"/>
+      <c r="G10" t="n" s="0">
+        <v>12.0</v>
+      </c>
       <c r="H10" s="16">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2229,7 +2238,9 @@
       <c r="F11" s="17">
         <v>18</v>
       </c>
-      <c r="G11" s="28"/>
+      <c r="G11" t="n" s="0">
+        <v>19.0</v>
+      </c>
       <c r="H11" s="16">
         <f t="shared" si="0"/>
         <v>17.5</v>
@@ -2262,7 +2273,9 @@
       <c r="F12" s="17">
         <v>20</v>
       </c>
-      <c r="G12" s="28"/>
+      <c r="G12" t="n" s="0">
+        <v>17.0</v>
+      </c>
       <c r="H12" s="16">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2284,7 +2297,9 @@
       <c r="F13" s="17">
         <v>16</v>
       </c>
-      <c r="G13" s="28"/>
+      <c r="G13" t="n" s="0">
+        <v>18.0</v>
+      </c>
       <c r="H13" s="16">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2306,7 +2321,9 @@
       <c r="F14" s="17">
         <v>20</v>
       </c>
-      <c r="G14" s="28"/>
+      <c r="G14" t="n" s="0">
+        <v>17.0</v>
+      </c>
       <c r="H14" s="16">
         <f t="shared" si="0"/>
         <v>17.5</v>
@@ -2328,15 +2345,17 @@
       <c r="F15" s="17">
         <v>14</v>
       </c>
-      <c r="G15" s="28"/>
+      <c r="G15" t="n" s="0">
+        <v>21.0</v>
+      </c>
       <c r="H15" s="16">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="R15">
-        <v>1</v>
-      </c>
-      <c r="S15">
+      <c r="R15" s="0">
+        <v>1</v>
+      </c>
+      <c r="S15" s="0">
         <f>AVERAGE(H5:H7,H10:H16,H18:H30,H32:H60,H62:H80)</f>
         <v>16.316901408450704</v>
       </c>
@@ -2357,21 +2376,23 @@
       <c r="F16" s="17">
         <v>17</v>
       </c>
-      <c r="G16" s="28"/>
+      <c r="G16" t="n" s="0">
+        <v>19.0</v>
+      </c>
       <c r="H16" s="16">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="R16">
+      <c r="R16" s="0">
         <v>2</v>
       </c>
-      <c r="S16">
+      <c r="S16" s="0">
         <f>AVERAGE(H8,H31,H61)</f>
         <v>38</v>
       </c>
@@ -2392,23 +2413,25 @@
       <c r="F17" s="17">
         <v>147</v>
       </c>
-      <c r="G17" s="28"/>
+      <c r="G17" t="n" s="0">
+        <v>20.0</v>
+      </c>
       <c r="H17" s="16">
         <f t="shared" si="0"/>
         <v>130</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="0">
         <f>AVERAGE(E4, E8:E9, E17,E31,E61)</f>
         <v>54.166666666666664</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="0">
         <f>AVERAGE(E5:E7,E10:E16,E18:E30,E32:E60,E62:E80)</f>
         <v>15.633802816901408</v>
       </c>
-      <c r="R17">
+      <c r="R17" s="0">
         <v>3</v>
       </c>
-      <c r="S17">
+      <c r="S17" s="0">
         <f>AVERAGE(H4)</f>
         <v>41</v>
       </c>
@@ -2429,15 +2452,17 @@
       <c r="F18" s="17">
         <v>15</v>
       </c>
-      <c r="G18" s="28"/>
+      <c r="G18" t="n" s="0">
+        <v>16.0</v>
+      </c>
       <c r="H18" s="16">
         <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
-      <c r="R18">
+      <c r="R18" s="0">
         <v>4</v>
       </c>
-      <c r="S18">
+      <c r="S18" s="0">
         <f>AVERAGE(H9,H17)</f>
         <v>97.5</v>
       </c>
@@ -2458,7 +2483,9 @@
       <c r="F19" s="17">
         <v>27</v>
       </c>
-      <c r="G19" s="28"/>
+      <c r="G19" t="n" s="0">
+        <v>20.0</v>
+      </c>
       <c r="H19" s="16">
         <f t="shared" si="0"/>
         <v>20.5</v>
@@ -2480,7 +2507,9 @@
       <c r="F20" s="17">
         <v>13</v>
       </c>
-      <c r="G20" s="28"/>
+      <c r="G20" t="n" s="0">
+        <v>14.0</v>
+      </c>
       <c r="H20" s="16">
         <f t="shared" si="0"/>
         <v>11.5</v>
@@ -2502,7 +2531,9 @@
       <c r="F21" s="17">
         <v>13</v>
       </c>
-      <c r="G21" s="28"/>
+      <c r="G21" t="n" s="0">
+        <v>13.0</v>
+      </c>
       <c r="H21" s="16">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2524,7 +2555,9 @@
       <c r="F22" s="17">
         <v>10</v>
       </c>
-      <c r="G22" s="28"/>
+      <c r="G22" t="n" s="0">
+        <v>10.0</v>
+      </c>
       <c r="H22" s="16">
         <f t="shared" si="0"/>
         <v>10.5</v>
@@ -2546,7 +2579,9 @@
       <c r="F23" s="17">
         <v>11</v>
       </c>
-      <c r="G23" s="28"/>
+      <c r="G23" t="n" s="0">
+        <v>14.0</v>
+      </c>
       <c r="H23" s="16">
         <f t="shared" si="0"/>
         <v>14.5</v>
@@ -2568,7 +2603,9 @@
       <c r="F24" s="17">
         <v>11</v>
       </c>
-      <c r="G24" s="28"/>
+      <c r="G24" t="n" s="0">
+        <v>17.0</v>
+      </c>
       <c r="H24" s="16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2590,7 +2627,9 @@
       <c r="F25" s="17">
         <v>12</v>
       </c>
-      <c r="G25" s="28"/>
+      <c r="G25" t="n" s="0">
+        <v>13.0</v>
+      </c>
       <c r="H25" s="16">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2612,7 +2651,9 @@
       <c r="F26" s="17">
         <v>19</v>
       </c>
-      <c r="G26" s="28"/>
+      <c r="G26" t="n" s="0">
+        <v>21.0</v>
+      </c>
       <c r="H26" s="16">
         <f t="shared" si="0"/>
         <v>18.5</v>
@@ -2634,7 +2675,9 @@
       <c r="F27" s="17">
         <v>16</v>
       </c>
-      <c r="G27" s="28"/>
+      <c r="G27" t="n" s="0">
+        <v>15.0</v>
+      </c>
       <c r="H27" s="16">
         <f t="shared" si="0"/>
         <v>13.5</v>
@@ -2668,7 +2711,9 @@
       <c r="F28" s="17">
         <v>11</v>
       </c>
-      <c r="G28" s="28"/>
+      <c r="G28" t="n" s="0">
+        <v>11.0</v>
+      </c>
       <c r="H28" s="16">
         <f t="shared" si="0"/>
         <v>12.5</v>
@@ -2706,7 +2751,9 @@
       <c r="F29" s="17">
         <v>15</v>
       </c>
-      <c r="G29" s="28"/>
+      <c r="G29" t="n" s="0">
+        <v>10.0</v>
+      </c>
       <c r="H29" s="16">
         <f t="shared" si="0"/>
         <v>16.5</v>
@@ -2728,7 +2775,9 @@
       <c r="F30" s="17">
         <v>12</v>
       </c>
-      <c r="G30" s="28"/>
+      <c r="G30" t="n" s="0">
+        <v>15.0</v>
+      </c>
       <c r="H30" s="16">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2750,7 +2799,9 @@
       <c r="F31" s="17">
         <v>38</v>
       </c>
-      <c r="G31" s="28"/>
+      <c r="G31" t="n" s="0">
+        <v>40.0</v>
+      </c>
       <c r="H31" s="16">
         <f t="shared" si="0"/>
         <v>36.5</v>
@@ -2772,7 +2823,9 @@
       <c r="F32" s="17">
         <v>37</v>
       </c>
-      <c r="G32" s="28"/>
+      <c r="G32" t="n" s="0">
+        <v>13.0</v>
+      </c>
       <c r="H32" s="16">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2794,7 +2847,9 @@
       <c r="F33" s="17">
         <v>9</v>
       </c>
-      <c r="G33" s="28"/>
+      <c r="G33" t="n" s="0">
+        <v>20.0</v>
+      </c>
       <c r="H33" s="16">
         <f t="shared" si="0"/>
         <v>8.5</v>
@@ -2816,7 +2871,9 @@
       <c r="F34" s="17">
         <v>16</v>
       </c>
-      <c r="G34" s="28"/>
+      <c r="G34" t="n" s="0">
+        <v>13.0</v>
+      </c>
       <c r="H34" s="16">
         <f t="shared" si="0"/>
         <v>12.5</v>
@@ -2838,7 +2895,9 @@
       <c r="F35" s="17">
         <v>10</v>
       </c>
-      <c r="G35" s="28"/>
+      <c r="G35" t="n" s="0">
+        <v>16.0</v>
+      </c>
       <c r="H35" s="16">
         <f t="shared" si="0"/>
         <v>8.5</v>
@@ -2860,7 +2919,9 @@
       <c r="F36" s="17">
         <v>25</v>
       </c>
-      <c r="G36" s="28"/>
+      <c r="G36" t="n" s="0">
+        <v>12.0</v>
+      </c>
       <c r="H36" s="16">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2882,7 +2943,9 @@
       <c r="F37" s="17">
         <v>15</v>
       </c>
-      <c r="G37" s="28"/>
+      <c r="G37" t="n" s="0">
+        <v>23.0</v>
+      </c>
       <c r="H37" s="16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2904,7 +2967,9 @@
       <c r="F38" s="17">
         <v>17</v>
       </c>
-      <c r="G38" s="28"/>
+      <c r="G38" t="n" s="0">
+        <v>15.0</v>
+      </c>
       <c r="H38" s="16">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2926,7 +2991,9 @@
       <c r="F39" s="17">
         <v>15</v>
       </c>
-      <c r="G39" s="28"/>
+      <c r="G39" t="n" s="0">
+        <v>30.0</v>
+      </c>
       <c r="H39" s="16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2948,7 +3015,9 @@
       <c r="F40" s="17">
         <v>13</v>
       </c>
-      <c r="G40" s="28"/>
+      <c r="G40" t="n" s="0">
+        <v>7.0</v>
+      </c>
       <c r="H40" s="16">
         <f t="shared" si="0"/>
         <v>11.5</v>
@@ -2970,7 +3039,9 @@
       <c r="F41" s="17">
         <v>16</v>
       </c>
-      <c r="G41" s="28"/>
+      <c r="G41" t="n" s="0">
+        <v>17.0</v>
+      </c>
       <c r="H41" s="16">
         <f t="shared" si="0"/>
         <v>12.5</v>
@@ -2992,7 +3063,9 @@
       <c r="F42" s="17">
         <v>13</v>
       </c>
-      <c r="G42" s="28"/>
+      <c r="G42" t="n" s="0">
+        <v>15.0</v>
+      </c>
       <c r="H42" s="16">
         <f t="shared" si="0"/>
         <v>11.5</v>
@@ -3014,7 +3087,9 @@
       <c r="F43" s="17">
         <v>18</v>
       </c>
-      <c r="G43" s="28"/>
+      <c r="G43" t="n" s="0">
+        <v>16.0</v>
+      </c>
       <c r="H43" s="16">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -3036,7 +3111,9 @@
       <c r="F44" s="17">
         <v>7</v>
       </c>
-      <c r="G44" s="28"/>
+      <c r="G44" t="n" s="0">
+        <v>17.0</v>
+      </c>
       <c r="H44" s="16">
         <f t="shared" si="0"/>
         <v>27.5</v>
@@ -3058,7 +3135,9 @@
       <c r="F45" s="17">
         <v>12</v>
       </c>
-      <c r="G45" s="28"/>
+      <c r="G45" t="n" s="0">
+        <v>18.0</v>
+      </c>
       <c r="H45" s="16">
         <f t="shared" si="0"/>
         <v>13.5</v>
@@ -3080,7 +3159,9 @@
       <c r="F46" s="17">
         <v>12</v>
       </c>
-      <c r="G46" s="28"/>
+      <c r="G46" t="n" s="0">
+        <v>14.0</v>
+      </c>
       <c r="H46" s="16">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -3102,7 +3183,9 @@
       <c r="F47" s="17">
         <v>10</v>
       </c>
-      <c r="G47" s="28"/>
+      <c r="G47" t="n" s="0">
+        <v>11.0</v>
+      </c>
       <c r="H47" s="16">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -3124,7 +3207,9 @@
       <c r="F48" s="17">
         <v>17</v>
       </c>
-      <c r="G48" s="28"/>
+      <c r="G48" t="n" s="0">
+        <v>17.0</v>
+      </c>
       <c r="H48" s="16">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -3146,7 +3231,9 @@
       <c r="F49" s="17">
         <v>18</v>
       </c>
-      <c r="G49" s="28"/>
+      <c r="G49" t="n" s="0">
+        <v>17.0</v>
+      </c>
       <c r="H49" s="16">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -3168,7 +3255,9 @@
       <c r="F50" s="17">
         <v>21</v>
       </c>
-      <c r="G50" s="28"/>
+      <c r="G50" t="n" s="0">
+        <v>20.0</v>
+      </c>
       <c r="H50" s="16">
         <f t="shared" si="0"/>
         <v>18.5</v>
@@ -3190,7 +3279,9 @@
       <c r="F51" s="17">
         <v>14</v>
       </c>
-      <c r="G51" s="28"/>
+      <c r="G51" t="n" s="0">
+        <v>11.0</v>
+      </c>
       <c r="H51" s="16">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3212,7 +3303,9 @@
       <c r="F52" s="17">
         <v>13</v>
       </c>
-      <c r="G52" s="28"/>
+      <c r="G52" t="n" s="0">
+        <v>10.0</v>
+      </c>
       <c r="H52" s="16">
         <f t="shared" si="0"/>
         <v>13.5</v>
@@ -3234,7 +3327,9 @@
       <c r="F53" s="17">
         <v>13</v>
       </c>
-      <c r="G53" s="28"/>
+      <c r="G53" t="n" s="0">
+        <v>31.0</v>
+      </c>
       <c r="H53" s="16">
         <f t="shared" si="0"/>
         <v>12.5</v>
@@ -3256,7 +3351,9 @@
       <c r="F54" s="17">
         <v>14</v>
       </c>
-      <c r="G54" s="28"/>
+      <c r="G54" t="n" s="0">
+        <v>16.0</v>
+      </c>
       <c r="H54" s="16">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3278,7 +3375,9 @@
       <c r="F55" s="17">
         <v>14</v>
       </c>
-      <c r="G55" s="28"/>
+      <c r="G55" t="n" s="0">
+        <v>22.0</v>
+      </c>
       <c r="H55" s="16">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3300,7 +3399,9 @@
       <c r="F56" s="17">
         <v>19</v>
       </c>
-      <c r="G56" s="28"/>
+      <c r="G56" t="n" s="0">
+        <v>49.0</v>
+      </c>
       <c r="H56" s="16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3322,7 +3423,9 @@
       <c r="F57" s="17">
         <v>20</v>
       </c>
-      <c r="G57" s="28"/>
+      <c r="G57" t="n" s="0">
+        <v>19.0</v>
+      </c>
       <c r="H57" s="16">
         <f t="shared" si="0"/>
         <v>14.5</v>
@@ -3344,7 +3447,9 @@
       <c r="F58" s="17">
         <v>16</v>
       </c>
-      <c r="G58" s="28"/>
+      <c r="G58" t="n" s="0">
+        <v>17.0</v>
+      </c>
       <c r="H58" s="16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3366,7 +3471,9 @@
       <c r="F59" s="17">
         <v>17</v>
       </c>
-      <c r="G59" s="28"/>
+      <c r="G59" t="n" s="0">
+        <v>19.0</v>
+      </c>
       <c r="H59" s="16">
         <f t="shared" si="0"/>
         <v>14.5</v>
@@ -3388,7 +3495,9 @@
       <c r="F60" s="17">
         <v>46</v>
       </c>
-      <c r="G60" s="28"/>
+      <c r="G60" t="n" s="0">
+        <v>17.0</v>
+      </c>
       <c r="H60" s="16">
         <f t="shared" si="0"/>
         <v>31.5</v>
@@ -3410,7 +3519,9 @@
       <c r="F61" s="17">
         <v>26</v>
       </c>
-      <c r="G61" s="28"/>
+      <c r="G61" t="n" s="0">
+        <v>32.0</v>
+      </c>
       <c r="H61" s="16">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -3432,7 +3543,9 @@
       <c r="F62" s="17">
         <v>20</v>
       </c>
-      <c r="G62" s="28"/>
+      <c r="G62" t="n" s="0">
+        <v>15.0</v>
+      </c>
       <c r="H62" s="16">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3454,7 +3567,9 @@
       <c r="F63" s="17">
         <v>43</v>
       </c>
-      <c r="G63" s="28"/>
+      <c r="G63" t="n" s="0">
+        <v>17.0</v>
+      </c>
       <c r="H63" s="16">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -3476,7 +3591,9 @@
       <c r="F64" s="17">
         <v>54</v>
       </c>
-      <c r="G64" s="28"/>
+      <c r="G64" t="n" s="0">
+        <v>18.0</v>
+      </c>
       <c r="H64" s="16">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -3498,7 +3615,9 @@
       <c r="F65" s="17">
         <v>12</v>
       </c>
-      <c r="G65" s="28"/>
+      <c r="G65" t="n" s="0">
+        <v>12.0</v>
+      </c>
       <c r="H65" s="16">
         <f t="shared" si="0"/>
         <v>12.5</v>
@@ -3520,7 +3639,9 @@
       <c r="F66" s="17">
         <v>13</v>
       </c>
-      <c r="G66" s="28"/>
+      <c r="G66" t="n" s="0">
+        <v>10.0</v>
+      </c>
       <c r="H66" s="16">
         <f t="shared" si="0"/>
         <v>13.5</v>
@@ -3542,7 +3663,9 @@
       <c r="F67" s="17">
         <v>24</v>
       </c>
-      <c r="G67" s="28"/>
+      <c r="G67" t="n" s="0">
+        <v>11.0</v>
+      </c>
       <c r="H67" s="16">
         <f t="shared" si="0"/>
         <v>19.5</v>
@@ -3564,7 +3687,9 @@
       <c r="F68" s="17">
         <v>13</v>
       </c>
-      <c r="G68" s="28"/>
+      <c r="G68" t="n" s="0">
+        <v>17.0</v>
+      </c>
       <c r="H68" s="16">
         <f t="shared" si="0"/>
         <v>11.5</v>
@@ -3586,7 +3711,9 @@
       <c r="F69" s="17">
         <v>48</v>
       </c>
-      <c r="G69" s="28"/>
+      <c r="G69" t="n" s="0">
+        <v>17.0</v>
+      </c>
       <c r="H69" s="16">
         <f t="shared" ref="H69:H80" si="1">AVERAGE(E69:G69)</f>
         <v>30.5</v>
@@ -3608,7 +3735,9 @@
       <c r="F70" s="17">
         <v>11</v>
       </c>
-      <c r="G70" s="28"/>
+      <c r="G70" t="n" s="0">
+        <v>16.0</v>
+      </c>
       <c r="H70" s="16">
         <f t="shared" si="1"/>
         <v>13.5</v>
@@ -3630,7 +3759,9 @@
       <c r="F71" s="17">
         <v>14</v>
       </c>
-      <c r="G71" s="28"/>
+      <c r="G71" t="n" s="0">
+        <v>12.0</v>
+      </c>
       <c r="H71" s="16">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -3652,7 +3783,9 @@
       <c r="F72" s="17">
         <v>13</v>
       </c>
-      <c r="G72" s="28"/>
+      <c r="G72" t="n" s="0">
+        <v>13.0</v>
+      </c>
       <c r="H72" s="16">
         <f t="shared" si="1"/>
         <v>33.5</v>
@@ -3674,7 +3807,9 @@
       <c r="F73" s="17">
         <v>16</v>
       </c>
-      <c r="G73" s="28"/>
+      <c r="G73" t="n" s="0">
+        <v>10.0</v>
+      </c>
       <c r="H73" s="16">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -3696,7 +3831,9 @@
       <c r="F74" s="17">
         <v>11</v>
       </c>
-      <c r="G74" s="28"/>
+      <c r="G74" t="n" s="0">
+        <v>46.0</v>
+      </c>
       <c r="H74" s="16">
         <f t="shared" si="1"/>
         <v>13.5</v>
@@ -3718,7 +3855,9 @@
       <c r="F75" s="17">
         <v>10</v>
       </c>
-      <c r="G75" s="28"/>
+      <c r="G75" t="n" s="0">
+        <v>20.0</v>
+      </c>
       <c r="H75" s="16">
         <f t="shared" si="1"/>
         <v>11.5</v>
@@ -3740,7 +3879,9 @@
       <c r="F76" s="17">
         <v>14</v>
       </c>
-      <c r="G76" s="28"/>
+      <c r="G76" t="n" s="0">
+        <v>24.0</v>
+      </c>
       <c r="H76" s="16">
         <f t="shared" si="1"/>
         <v>13.5</v>
@@ -3762,7 +3903,9 @@
       <c r="F77" s="17">
         <v>15</v>
       </c>
-      <c r="G77" s="28"/>
+      <c r="G77" t="n" s="0">
+        <v>15.0</v>
+      </c>
       <c r="H77" s="16">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -3784,7 +3927,9 @@
       <c r="F78" s="17">
         <v>13</v>
       </c>
-      <c r="G78" s="28"/>
+      <c r="G78" t="n" s="0">
+        <v>12.0</v>
+      </c>
       <c r="H78" s="16">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -3806,7 +3951,9 @@
       <c r="F79" s="17">
         <v>9</v>
       </c>
-      <c r="G79" s="28"/>
+      <c r="G79" t="n" s="0">
+        <v>13.0</v>
+      </c>
       <c r="H79" s="16">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -3828,8 +3975,10 @@
       <c r="F80" s="18">
         <v>8</v>
       </c>
-      <c r="G80" s="29"/>
-      <c r="H80" s="30">
+      <c r="G80" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="H80" s="28">
         <f t="shared" si="1"/>
         <v>12.5</v>
       </c>
@@ -3851,9 +4000,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="23.83203125" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" customWidth="true" width="23.83203125"/>
+    <col min="4" max="4" customWidth="true" width="19.83203125"/>
+    <col min="5" max="5" customWidth="true" width="17.6640625"/>
   </cols>
   <sheetData>
     <row r="4" spans="3:5" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>

--- a/documentation/PerformanceApplicativo.xlsx
+++ b/documentation/PerformanceApplicativo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giacomoponzuoli/Desktop/unifi_phd/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E098488-8611-F14A-B4E2-C9F2B477401E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E86D5FF-2CFE-9946-A479-E07ABF8E7592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15780" xr2:uid="{13C5857E-3D3E-1E45-AA8C-1ACFF6915785}"/>
   </bookViews>
@@ -1969,7 +1969,7 @@
   <dimension ref="B3:S80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J16" sqref="J15:J16"/>
+      <selection activeCell="G4" sqref="G4:G80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2029,7 +2029,7 @@
         <v>47</v>
       </c>
       <c r="G4" t="n" s="0">
-        <v>23.0</v>
+        <v>11.0</v>
       </c>
       <c r="H4" s="16">
         <f>AVERAGE(E4:G4)</f>
@@ -2053,7 +2053,7 @@
         <v>18</v>
       </c>
       <c r="G5" t="n" s="0">
-        <v>20.0</v>
+        <v>33.0</v>
       </c>
       <c r="H5" s="16">
         <f t="shared" ref="H5:H68" si="0">AVERAGE(E5:G5)</f>
@@ -2077,7 +2077,7 @@
         <v>15</v>
       </c>
       <c r="G6" t="n" s="0">
-        <v>18.0</v>
+        <v>20.0</v>
       </c>
       <c r="H6" s="16">
         <f>AVERAGE(E6:G6)</f>
@@ -2101,7 +2101,7 @@
         <v>16</v>
       </c>
       <c r="G7" t="n" s="0">
-        <v>47.0</v>
+        <v>19.0</v>
       </c>
       <c r="H7" s="16">
         <f t="shared" si="0"/>
@@ -2134,7 +2134,7 @@
         <v>38</v>
       </c>
       <c r="G8" t="n" s="0">
-        <v>31.0</v>
+        <v>37.0</v>
       </c>
       <c r="H8" s="16">
         <f t="shared" si="0"/>
@@ -2169,7 +2169,7 @@
         <v>79</v>
       </c>
       <c r="G9" t="n" s="0">
-        <v>10.0</v>
+        <v>29.0</v>
       </c>
       <c r="H9" s="16">
         <f t="shared" si="0"/>
@@ -2204,7 +2204,7 @@
         <v>20</v>
       </c>
       <c r="G10" t="n" s="0">
-        <v>12.0</v>
+        <v>22.0</v>
       </c>
       <c r="H10" s="16">
         <f t="shared" si="0"/>
@@ -2239,7 +2239,7 @@
         <v>18</v>
       </c>
       <c r="G11" t="n" s="0">
-        <v>19.0</v>
+        <v>11.0</v>
       </c>
       <c r="H11" s="16">
         <f t="shared" si="0"/>
@@ -2274,7 +2274,7 @@
         <v>20</v>
       </c>
       <c r="G12" t="n" s="0">
-        <v>17.0</v>
+        <v>21.0</v>
       </c>
       <c r="H12" s="16">
         <f t="shared" si="0"/>
@@ -2298,7 +2298,7 @@
         <v>16</v>
       </c>
       <c r="G13" t="n" s="0">
-        <v>18.0</v>
+        <v>13.0</v>
       </c>
       <c r="H13" s="16">
         <f t="shared" si="0"/>
@@ -2322,7 +2322,7 @@
         <v>20</v>
       </c>
       <c r="G14" t="n" s="0">
-        <v>17.0</v>
+        <v>7.0</v>
       </c>
       <c r="H14" s="16">
         <f t="shared" si="0"/>
@@ -2346,7 +2346,7 @@
         <v>14</v>
       </c>
       <c r="G15" t="n" s="0">
-        <v>21.0</v>
+        <v>13.0</v>
       </c>
       <c r="H15" s="16">
         <f t="shared" si="0"/>
@@ -2377,7 +2377,7 @@
         <v>17</v>
       </c>
       <c r="G16" t="n" s="0">
-        <v>19.0</v>
+        <v>15.0</v>
       </c>
       <c r="H16" s="16">
         <f t="shared" si="0"/>
@@ -2414,7 +2414,7 @@
         <v>147</v>
       </c>
       <c r="G17" t="n" s="0">
-        <v>20.0</v>
+        <v>17.0</v>
       </c>
       <c r="H17" s="16">
         <f t="shared" si="0"/>
@@ -2453,7 +2453,7 @@
         <v>15</v>
       </c>
       <c r="G18" t="n" s="0">
-        <v>16.0</v>
+        <v>14.0</v>
       </c>
       <c r="H18" s="16">
         <f t="shared" si="0"/>
@@ -2484,7 +2484,7 @@
         <v>27</v>
       </c>
       <c r="G19" t="n" s="0">
-        <v>20.0</v>
+        <v>13.0</v>
       </c>
       <c r="H19" s="16">
         <f t="shared" si="0"/>
@@ -2508,7 +2508,7 @@
         <v>13</v>
       </c>
       <c r="G20" t="n" s="0">
-        <v>14.0</v>
+        <v>11.0</v>
       </c>
       <c r="H20" s="16">
         <f t="shared" si="0"/>
@@ -2556,7 +2556,7 @@
         <v>10</v>
       </c>
       <c r="G22" t="n" s="0">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
       <c r="H22" s="16">
         <f t="shared" si="0"/>
@@ -2580,7 +2580,7 @@
         <v>11</v>
       </c>
       <c r="G23" t="n" s="0">
-        <v>14.0</v>
+        <v>18.0</v>
       </c>
       <c r="H23" s="16">
         <f t="shared" si="0"/>
@@ -2604,7 +2604,7 @@
         <v>11</v>
       </c>
       <c r="G24" t="n" s="0">
-        <v>17.0</v>
+        <v>20.0</v>
       </c>
       <c r="H24" s="16">
         <f t="shared" si="0"/>
@@ -2628,7 +2628,7 @@
         <v>12</v>
       </c>
       <c r="G25" t="n" s="0">
-        <v>13.0</v>
+        <v>16.0</v>
       </c>
       <c r="H25" s="16">
         <f t="shared" si="0"/>
@@ -2652,7 +2652,7 @@
         <v>19</v>
       </c>
       <c r="G26" t="n" s="0">
-        <v>21.0</v>
+        <v>13.0</v>
       </c>
       <c r="H26" s="16">
         <f t="shared" si="0"/>
@@ -2712,7 +2712,7 @@
         <v>11</v>
       </c>
       <c r="G28" t="n" s="0">
-        <v>11.0</v>
+        <v>19.0</v>
       </c>
       <c r="H28" s="16">
         <f t="shared" si="0"/>
@@ -2752,7 +2752,7 @@
         <v>15</v>
       </c>
       <c r="G29" t="n" s="0">
-        <v>10.0</v>
+        <v>14.0</v>
       </c>
       <c r="H29" s="16">
         <f t="shared" si="0"/>
@@ -2776,7 +2776,7 @@
         <v>12</v>
       </c>
       <c r="G30" t="n" s="0">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
       <c r="H30" s="16">
         <f t="shared" si="0"/>
@@ -2800,7 +2800,7 @@
         <v>38</v>
       </c>
       <c r="G31" t="n" s="0">
-        <v>40.0</v>
+        <v>79.0</v>
       </c>
       <c r="H31" s="16">
         <f t="shared" si="0"/>
@@ -2824,7 +2824,7 @@
         <v>37</v>
       </c>
       <c r="G32" t="n" s="0">
-        <v>13.0</v>
+        <v>17.0</v>
       </c>
       <c r="H32" s="16">
         <f t="shared" si="0"/>
@@ -2872,7 +2872,7 @@
         <v>16</v>
       </c>
       <c r="G34" t="n" s="0">
-        <v>13.0</v>
+        <v>17.0</v>
       </c>
       <c r="H34" s="16">
         <f t="shared" si="0"/>
@@ -2896,7 +2896,7 @@
         <v>10</v>
       </c>
       <c r="G35" t="n" s="0">
-        <v>16.0</v>
+        <v>9.0</v>
       </c>
       <c r="H35" s="16">
         <f t="shared" si="0"/>
@@ -2920,7 +2920,7 @@
         <v>25</v>
       </c>
       <c r="G36" t="n" s="0">
-        <v>12.0</v>
+        <v>48.0</v>
       </c>
       <c r="H36" s="16">
         <f t="shared" si="0"/>
@@ -2944,7 +2944,7 @@
         <v>15</v>
       </c>
       <c r="G37" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="H37" s="16">
         <f t="shared" si="0"/>
@@ -2968,7 +2968,7 @@
         <v>17</v>
       </c>
       <c r="G38" t="n" s="0">
-        <v>15.0</v>
+        <v>33.0</v>
       </c>
       <c r="H38" s="16">
         <f t="shared" si="0"/>
@@ -2992,7 +2992,7 @@
         <v>15</v>
       </c>
       <c r="G39" t="n" s="0">
-        <v>30.0</v>
+        <v>18.0</v>
       </c>
       <c r="H39" s="16">
         <f t="shared" si="0"/>
@@ -3016,7 +3016,7 @@
         <v>13</v>
       </c>
       <c r="G40" t="n" s="0">
-        <v>7.0</v>
+        <v>18.0</v>
       </c>
       <c r="H40" s="16">
         <f t="shared" si="0"/>
@@ -3040,7 +3040,7 @@
         <v>16</v>
       </c>
       <c r="G41" t="n" s="0">
-        <v>17.0</v>
+        <v>13.0</v>
       </c>
       <c r="H41" s="16">
         <f t="shared" si="0"/>
@@ -3064,7 +3064,7 @@
         <v>13</v>
       </c>
       <c r="G42" t="n" s="0">
-        <v>15.0</v>
+        <v>22.0</v>
       </c>
       <c r="H42" s="16">
         <f t="shared" si="0"/>
@@ -3088,7 +3088,7 @@
         <v>18</v>
       </c>
       <c r="G43" t="n" s="0">
-        <v>16.0</v>
+        <v>32.0</v>
       </c>
       <c r="H43" s="16">
         <f t="shared" si="0"/>
@@ -3112,7 +3112,7 @@
         <v>7</v>
       </c>
       <c r="G44" t="n" s="0">
-        <v>17.0</v>
+        <v>13.0</v>
       </c>
       <c r="H44" s="16">
         <f t="shared" si="0"/>
@@ -3136,7 +3136,7 @@
         <v>12</v>
       </c>
       <c r="G45" t="n" s="0">
-        <v>18.0</v>
+        <v>13.0</v>
       </c>
       <c r="H45" s="16">
         <f t="shared" si="0"/>
@@ -3160,7 +3160,7 @@
         <v>12</v>
       </c>
       <c r="G46" t="n" s="0">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
       <c r="H46" s="16">
         <f t="shared" si="0"/>
@@ -3184,7 +3184,7 @@
         <v>10</v>
       </c>
       <c r="G47" t="n" s="0">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="H47" s="16">
         <f t="shared" si="0"/>
@@ -3232,7 +3232,7 @@
         <v>18</v>
       </c>
       <c r="G49" t="n" s="0">
-        <v>17.0</v>
+        <v>12.0</v>
       </c>
       <c r="H49" s="16">
         <f t="shared" si="0"/>
@@ -3256,7 +3256,7 @@
         <v>21</v>
       </c>
       <c r="G50" t="n" s="0">
-        <v>20.0</v>
+        <v>9.0</v>
       </c>
       <c r="H50" s="16">
         <f t="shared" si="0"/>
@@ -3280,7 +3280,7 @@
         <v>14</v>
       </c>
       <c r="G51" t="n" s="0">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="H51" s="16">
         <f t="shared" si="0"/>
@@ -3304,7 +3304,7 @@
         <v>13</v>
       </c>
       <c r="G52" t="n" s="0">
-        <v>10.0</v>
+        <v>19.0</v>
       </c>
       <c r="H52" s="16">
         <f t="shared" si="0"/>
@@ -3328,7 +3328,7 @@
         <v>13</v>
       </c>
       <c r="G53" t="n" s="0">
-        <v>31.0</v>
+        <v>9.0</v>
       </c>
       <c r="H53" s="16">
         <f t="shared" si="0"/>
@@ -3352,7 +3352,7 @@
         <v>14</v>
       </c>
       <c r="G54" t="n" s="0">
-        <v>16.0</v>
+        <v>12.0</v>
       </c>
       <c r="H54" s="16">
         <f t="shared" si="0"/>
@@ -3376,7 +3376,7 @@
         <v>14</v>
       </c>
       <c r="G55" t="n" s="0">
-        <v>22.0</v>
+        <v>17.0</v>
       </c>
       <c r="H55" s="16">
         <f t="shared" si="0"/>
@@ -3400,7 +3400,7 @@
         <v>19</v>
       </c>
       <c r="G56" t="n" s="0">
-        <v>49.0</v>
+        <v>21.0</v>
       </c>
       <c r="H56" s="16">
         <f t="shared" si="0"/>
@@ -3424,7 +3424,7 @@
         <v>20</v>
       </c>
       <c r="G57" t="n" s="0">
-        <v>19.0</v>
+        <v>44.0</v>
       </c>
       <c r="H57" s="16">
         <f t="shared" si="0"/>
@@ -3448,7 +3448,7 @@
         <v>16</v>
       </c>
       <c r="G58" t="n" s="0">
-        <v>17.0</v>
+        <v>13.0</v>
       </c>
       <c r="H58" s="16">
         <f t="shared" si="0"/>
@@ -3472,7 +3472,7 @@
         <v>17</v>
       </c>
       <c r="G59" t="n" s="0">
-        <v>19.0</v>
+        <v>13.0</v>
       </c>
       <c r="H59" s="16">
         <f t="shared" si="0"/>
@@ -3496,7 +3496,7 @@
         <v>46</v>
       </c>
       <c r="G60" t="n" s="0">
-        <v>17.0</v>
+        <v>12.0</v>
       </c>
       <c r="H60" s="16">
         <f t="shared" si="0"/>
@@ -3520,7 +3520,7 @@
         <v>26</v>
       </c>
       <c r="G61" t="n" s="0">
-        <v>32.0</v>
+        <v>28.0</v>
       </c>
       <c r="H61" s="16">
         <f t="shared" si="0"/>
@@ -3568,7 +3568,7 @@
         <v>43</v>
       </c>
       <c r="G63" t="n" s="0">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="H63" s="16">
         <f t="shared" si="0"/>
@@ -3616,7 +3616,7 @@
         <v>12</v>
       </c>
       <c r="G65" t="n" s="0">
-        <v>12.0</v>
+        <v>18.0</v>
       </c>
       <c r="H65" s="16">
         <f t="shared" si="0"/>
@@ -3640,7 +3640,7 @@
         <v>13</v>
       </c>
       <c r="G66" t="n" s="0">
-        <v>10.0</v>
+        <v>16.0</v>
       </c>
       <c r="H66" s="16">
         <f t="shared" si="0"/>
@@ -3664,7 +3664,7 @@
         <v>24</v>
       </c>
       <c r="G67" t="n" s="0">
-        <v>11.0</v>
+        <v>16.0</v>
       </c>
       <c r="H67" s="16">
         <f t="shared" si="0"/>
@@ -3688,7 +3688,7 @@
         <v>13</v>
       </c>
       <c r="G68" t="n" s="0">
-        <v>17.0</v>
+        <v>16.0</v>
       </c>
       <c r="H68" s="16">
         <f t="shared" si="0"/>
@@ -3712,7 +3712,7 @@
         <v>48</v>
       </c>
       <c r="G69" t="n" s="0">
-        <v>17.0</v>
+        <v>13.0</v>
       </c>
       <c r="H69" s="16">
         <f t="shared" ref="H69:H80" si="1">AVERAGE(E69:G69)</f>
@@ -3736,7 +3736,7 @@
         <v>11</v>
       </c>
       <c r="G70" t="n" s="0">
-        <v>16.0</v>
+        <v>18.0</v>
       </c>
       <c r="H70" s="16">
         <f t="shared" si="1"/>
@@ -3760,7 +3760,7 @@
         <v>14</v>
       </c>
       <c r="G71" t="n" s="0">
-        <v>12.0</v>
+        <v>18.0</v>
       </c>
       <c r="H71" s="16">
         <f t="shared" si="1"/>
@@ -3784,7 +3784,7 @@
         <v>13</v>
       </c>
       <c r="G72" t="n" s="0">
-        <v>13.0</v>
+        <v>48.0</v>
       </c>
       <c r="H72" s="16">
         <f t="shared" si="1"/>
@@ -3808,7 +3808,7 @@
         <v>16</v>
       </c>
       <c r="G73" t="n" s="0">
-        <v>10.0</v>
+        <v>43.0</v>
       </c>
       <c r="H73" s="16">
         <f t="shared" si="1"/>
@@ -3832,7 +3832,7 @@
         <v>11</v>
       </c>
       <c r="G74" t="n" s="0">
-        <v>46.0</v>
+        <v>20.0</v>
       </c>
       <c r="H74" s="16">
         <f t="shared" si="1"/>
@@ -3856,7 +3856,7 @@
         <v>10</v>
       </c>
       <c r="G75" t="n" s="0">
-        <v>20.0</v>
+        <v>15.0</v>
       </c>
       <c r="H75" s="16">
         <f t="shared" si="1"/>
@@ -3880,7 +3880,7 @@
         <v>14</v>
       </c>
       <c r="G76" t="n" s="0">
-        <v>24.0</v>
+        <v>21.0</v>
       </c>
       <c r="H76" s="16">
         <f t="shared" si="1"/>
@@ -3904,7 +3904,7 @@
         <v>15</v>
       </c>
       <c r="G77" t="n" s="0">
-        <v>15.0</v>
+        <v>18.0</v>
       </c>
       <c r="H77" s="16">
         <f t="shared" si="1"/>
@@ -3928,7 +3928,7 @@
         <v>13</v>
       </c>
       <c r="G78" t="n" s="0">
-        <v>12.0</v>
+        <v>16.0</v>
       </c>
       <c r="H78" s="16">
         <f t="shared" si="1"/>
@@ -3952,7 +3952,7 @@
         <v>9</v>
       </c>
       <c r="G79" t="n" s="0">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="H79" s="16">
         <f t="shared" si="1"/>
@@ -3976,7 +3976,7 @@
         <v>8</v>
       </c>
       <c r="G80" t="n" s="0">
-        <v>15.0</v>
+        <v>18.0</v>
       </c>
       <c r="H80" s="28">
         <f t="shared" si="1"/>

--- a/documentation/PerformanceApplicativo.xlsx
+++ b/documentation/PerformanceApplicativo.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giacomoponzuoli/Desktop/unifi_phd/documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattiamarilli/Progetti/unifi_phd/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E86D5FF-2CFE-9946-A479-E07ABF8E7592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7AEE0D3-1181-CA45-B21D-CD339640685F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15780" xr2:uid="{13C5857E-3D3E-1E45-AA8C-1ACFF6915785}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -349,7 +349,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1974,19 +1973,19 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.6640625"/>
-    <col min="2" max="2" customWidth="true" width="40.0"/>
-    <col min="3" max="3" customWidth="true" width="56.1640625"/>
-    <col min="4" max="4" customWidth="true" width="26.83203125"/>
-    <col min="5" max="5" customWidth="true" width="30.33203125"/>
-    <col min="6" max="6" customWidth="true" width="28.33203125"/>
-    <col min="7" max="7" customWidth="true" width="29.33203125"/>
-    <col min="8" max="8" customWidth="true" width="25.1640625"/>
-    <col min="9" max="9" customWidth="true" width="20.1640625"/>
-    <col min="10" max="10" customWidth="true" width="23.83203125"/>
-    <col min="11" max="11" customWidth="true" width="19.33203125"/>
-    <col min="12" max="12" customWidth="true" width="15.33203125"/>
-    <col min="13" max="13" customWidth="true" width="18.0"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="40" customWidth="1"/>
+    <col min="3" max="3" width="56.1640625" customWidth="1"/>
+    <col min="4" max="4" width="26.83203125" customWidth="1"/>
+    <col min="5" max="5" width="30.33203125" customWidth="1"/>
+    <col min="6" max="6" width="28.33203125" customWidth="1"/>
+    <col min="7" max="7" width="29.33203125" customWidth="1"/>
+    <col min="8" max="8" width="25.1640625" customWidth="1"/>
+    <col min="9" max="9" width="20.1640625" customWidth="1"/>
+    <col min="10" max="10" width="23.83203125" customWidth="1"/>
+    <col min="11" max="11" width="19.33203125" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" customWidth="1"/>
+    <col min="13" max="13" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:19" ht="21" x14ac:dyDescent="0.25">
@@ -2028,9 +2027,6 @@
       <c r="F4" s="16">
         <v>47</v>
       </c>
-      <c r="G4" t="n" s="0">
-        <v>11.0</v>
-      </c>
       <c r="H4" s="16">
         <f>AVERAGE(E4:G4)</f>
         <v>41</v>
@@ -2052,9 +2048,6 @@
       <c r="F5" s="17">
         <v>18</v>
       </c>
-      <c r="G5" t="n" s="0">
-        <v>33.0</v>
-      </c>
       <c r="H5" s="16">
         <f t="shared" ref="H5:H68" si="0">AVERAGE(E5:G5)</f>
         <v>16.5</v>
@@ -2076,9 +2069,6 @@
       <c r="F6" s="17">
         <v>15</v>
       </c>
-      <c r="G6" t="n" s="0">
-        <v>20.0</v>
-      </c>
       <c r="H6" s="16">
         <f>AVERAGE(E6:G6)</f>
         <v>18.5</v>
@@ -2100,9 +2090,6 @@
       <c r="F7" s="17">
         <v>16</v>
       </c>
-      <c r="G7" t="n" s="0">
-        <v>19.0</v>
-      </c>
       <c r="H7" s="16">
         <f t="shared" si="0"/>
         <v>16.5</v>
@@ -2133,9 +2120,6 @@
       <c r="F8" s="17">
         <v>38</v>
       </c>
-      <c r="G8" t="n" s="0">
-        <v>37.0</v>
-      </c>
       <c r="H8" s="16">
         <f t="shared" si="0"/>
         <v>37.5</v>
@@ -2168,9 +2152,6 @@
       <c r="F9" s="17">
         <v>79</v>
       </c>
-      <c r="G9" t="n" s="0">
-        <v>29.0</v>
-      </c>
       <c r="H9" s="16">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -2203,9 +2184,6 @@
       <c r="F10" s="17">
         <v>20</v>
       </c>
-      <c r="G10" t="n" s="0">
-        <v>22.0</v>
-      </c>
       <c r="H10" s="16">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2238,9 +2216,6 @@
       <c r="F11" s="17">
         <v>18</v>
       </c>
-      <c r="G11" t="n" s="0">
-        <v>11.0</v>
-      </c>
       <c r="H11" s="16">
         <f t="shared" si="0"/>
         <v>17.5</v>
@@ -2273,9 +2248,6 @@
       <c r="F12" s="17">
         <v>20</v>
       </c>
-      <c r="G12" t="n" s="0">
-        <v>21.0</v>
-      </c>
       <c r="H12" s="16">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2297,9 +2269,6 @@
       <c r="F13" s="17">
         <v>16</v>
       </c>
-      <c r="G13" t="n" s="0">
-        <v>13.0</v>
-      </c>
       <c r="H13" s="16">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2321,9 +2290,6 @@
       <c r="F14" s="17">
         <v>20</v>
       </c>
-      <c r="G14" t="n" s="0">
-        <v>7.0</v>
-      </c>
       <c r="H14" s="16">
         <f t="shared" si="0"/>
         <v>17.5</v>
@@ -2345,17 +2311,14 @@
       <c r="F15" s="17">
         <v>14</v>
       </c>
-      <c r="G15" t="n" s="0">
-        <v>13.0</v>
-      </c>
       <c r="H15" s="16">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="R15" s="0">
-        <v>1</v>
-      </c>
-      <c r="S15" s="0">
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15">
         <f>AVERAGE(H5:H7,H10:H16,H18:H30,H32:H60,H62:H80)</f>
         <v>16.316901408450704</v>
       </c>
@@ -2376,23 +2339,20 @@
       <c r="F16" s="17">
         <v>17</v>
       </c>
-      <c r="G16" t="n" s="0">
-        <v>15.0</v>
-      </c>
       <c r="H16" s="16">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="J16" t="s" s="0">
+      <c r="J16" t="s">
         <v>92</v>
       </c>
-      <c r="K16" t="s" s="0">
+      <c r="K16" t="s">
         <v>93</v>
       </c>
-      <c r="R16" s="0">
+      <c r="R16">
         <v>2</v>
       </c>
-      <c r="S16" s="0">
+      <c r="S16">
         <f>AVERAGE(H8,H31,H61)</f>
         <v>38</v>
       </c>
@@ -2413,25 +2373,22 @@
       <c r="F17" s="17">
         <v>147</v>
       </c>
-      <c r="G17" t="n" s="0">
-        <v>17.0</v>
-      </c>
       <c r="H17" s="16">
         <f t="shared" si="0"/>
         <v>130</v>
       </c>
-      <c r="J17" s="0">
+      <c r="J17">
         <f>AVERAGE(E4, E8:E9, E17,E31,E61)</f>
         <v>54.166666666666664</v>
       </c>
-      <c r="K17" s="0">
+      <c r="K17">
         <f>AVERAGE(E5:E7,E10:E16,E18:E30,E32:E60,E62:E80)</f>
         <v>15.633802816901408</v>
       </c>
-      <c r="R17" s="0">
+      <c r="R17">
         <v>3</v>
       </c>
-      <c r="S17" s="0">
+      <c r="S17">
         <f>AVERAGE(H4)</f>
         <v>41</v>
       </c>
@@ -2452,17 +2409,14 @@
       <c r="F18" s="17">
         <v>15</v>
       </c>
-      <c r="G18" t="n" s="0">
-        <v>14.0</v>
-      </c>
       <c r="H18" s="16">
         <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
-      <c r="R18" s="0">
+      <c r="R18">
         <v>4</v>
       </c>
-      <c r="S18" s="0">
+      <c r="S18">
         <f>AVERAGE(H9,H17)</f>
         <v>97.5</v>
       </c>
@@ -2483,9 +2437,6 @@
       <c r="F19" s="17">
         <v>27</v>
       </c>
-      <c r="G19" t="n" s="0">
-        <v>13.0</v>
-      </c>
       <c r="H19" s="16">
         <f t="shared" si="0"/>
         <v>20.5</v>
@@ -2507,9 +2458,6 @@
       <c r="F20" s="17">
         <v>13</v>
       </c>
-      <c r="G20" t="n" s="0">
-        <v>11.0</v>
-      </c>
       <c r="H20" s="16">
         <f t="shared" si="0"/>
         <v>11.5</v>
@@ -2531,9 +2479,6 @@
       <c r="F21" s="17">
         <v>13</v>
       </c>
-      <c r="G21" t="n" s="0">
-        <v>13.0</v>
-      </c>
       <c r="H21" s="16">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2555,9 +2500,6 @@
       <c r="F22" s="17">
         <v>10</v>
       </c>
-      <c r="G22" t="n" s="0">
-        <v>15.0</v>
-      </c>
       <c r="H22" s="16">
         <f t="shared" si="0"/>
         <v>10.5</v>
@@ -2579,9 +2521,6 @@
       <c r="F23" s="17">
         <v>11</v>
       </c>
-      <c r="G23" t="n" s="0">
-        <v>18.0</v>
-      </c>
       <c r="H23" s="16">
         <f t="shared" si="0"/>
         <v>14.5</v>
@@ -2603,9 +2542,6 @@
       <c r="F24" s="17">
         <v>11</v>
       </c>
-      <c r="G24" t="n" s="0">
-        <v>20.0</v>
-      </c>
       <c r="H24" s="16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2627,9 +2563,6 @@
       <c r="F25" s="17">
         <v>12</v>
       </c>
-      <c r="G25" t="n" s="0">
-        <v>16.0</v>
-      </c>
       <c r="H25" s="16">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2651,9 +2584,6 @@
       <c r="F26" s="17">
         <v>19</v>
       </c>
-      <c r="G26" t="n" s="0">
-        <v>13.0</v>
-      </c>
       <c r="H26" s="16">
         <f t="shared" si="0"/>
         <v>18.5</v>
@@ -2675,9 +2605,6 @@
       <c r="F27" s="17">
         <v>16</v>
       </c>
-      <c r="G27" t="n" s="0">
-        <v>15.0</v>
-      </c>
       <c r="H27" s="16">
         <f t="shared" si="0"/>
         <v>13.5</v>
@@ -2711,9 +2638,6 @@
       <c r="F28" s="17">
         <v>11</v>
       </c>
-      <c r="G28" t="n" s="0">
-        <v>19.0</v>
-      </c>
       <c r="H28" s="16">
         <f t="shared" si="0"/>
         <v>12.5</v>
@@ -2751,9 +2675,6 @@
       <c r="F29" s="17">
         <v>15</v>
       </c>
-      <c r="G29" t="n" s="0">
-        <v>14.0</v>
-      </c>
       <c r="H29" s="16">
         <f t="shared" si="0"/>
         <v>16.5</v>
@@ -2775,9 +2696,6 @@
       <c r="F30" s="17">
         <v>12</v>
       </c>
-      <c r="G30" t="n" s="0">
-        <v>17.0</v>
-      </c>
       <c r="H30" s="16">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2799,9 +2717,6 @@
       <c r="F31" s="17">
         <v>38</v>
       </c>
-      <c r="G31" t="n" s="0">
-        <v>79.0</v>
-      </c>
       <c r="H31" s="16">
         <f t="shared" si="0"/>
         <v>36.5</v>
@@ -2823,9 +2738,6 @@
       <c r="F32" s="17">
         <v>37</v>
       </c>
-      <c r="G32" t="n" s="0">
-        <v>17.0</v>
-      </c>
       <c r="H32" s="16">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2847,9 +2759,6 @@
       <c r="F33" s="17">
         <v>9</v>
       </c>
-      <c r="G33" t="n" s="0">
-        <v>20.0</v>
-      </c>
       <c r="H33" s="16">
         <f t="shared" si="0"/>
         <v>8.5</v>
@@ -2871,9 +2780,6 @@
       <c r="F34" s="17">
         <v>16</v>
       </c>
-      <c r="G34" t="n" s="0">
-        <v>17.0</v>
-      </c>
       <c r="H34" s="16">
         <f t="shared" si="0"/>
         <v>12.5</v>
@@ -2895,9 +2801,6 @@
       <c r="F35" s="17">
         <v>10</v>
       </c>
-      <c r="G35" t="n" s="0">
-        <v>9.0</v>
-      </c>
       <c r="H35" s="16">
         <f t="shared" si="0"/>
         <v>8.5</v>
@@ -2919,9 +2822,6 @@
       <c r="F36" s="17">
         <v>25</v>
       </c>
-      <c r="G36" t="n" s="0">
-        <v>48.0</v>
-      </c>
       <c r="H36" s="16">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2943,9 +2843,6 @@
       <c r="F37" s="17">
         <v>15</v>
       </c>
-      <c r="G37" t="n" s="0">
-        <v>24.0</v>
-      </c>
       <c r="H37" s="16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2967,9 +2864,6 @@
       <c r="F38" s="17">
         <v>17</v>
       </c>
-      <c r="G38" t="n" s="0">
-        <v>33.0</v>
-      </c>
       <c r="H38" s="16">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2991,9 +2885,6 @@
       <c r="F39" s="17">
         <v>15</v>
       </c>
-      <c r="G39" t="n" s="0">
-        <v>18.0</v>
-      </c>
       <c r="H39" s="16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3015,9 +2906,6 @@
       <c r="F40" s="17">
         <v>13</v>
       </c>
-      <c r="G40" t="n" s="0">
-        <v>18.0</v>
-      </c>
       <c r="H40" s="16">
         <f t="shared" si="0"/>
         <v>11.5</v>
@@ -3039,9 +2927,6 @@
       <c r="F41" s="17">
         <v>16</v>
       </c>
-      <c r="G41" t="n" s="0">
-        <v>13.0</v>
-      </c>
       <c r="H41" s="16">
         <f t="shared" si="0"/>
         <v>12.5</v>
@@ -3063,9 +2948,6 @@
       <c r="F42" s="17">
         <v>13</v>
       </c>
-      <c r="G42" t="n" s="0">
-        <v>22.0</v>
-      </c>
       <c r="H42" s="16">
         <f t="shared" si="0"/>
         <v>11.5</v>
@@ -3087,9 +2969,6 @@
       <c r="F43" s="17">
         <v>18</v>
       </c>
-      <c r="G43" t="n" s="0">
-        <v>32.0</v>
-      </c>
       <c r="H43" s="16">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -3111,9 +2990,6 @@
       <c r="F44" s="17">
         <v>7</v>
       </c>
-      <c r="G44" t="n" s="0">
-        <v>13.0</v>
-      </c>
       <c r="H44" s="16">
         <f t="shared" si="0"/>
         <v>27.5</v>
@@ -3135,9 +3011,6 @@
       <c r="F45" s="17">
         <v>12</v>
       </c>
-      <c r="G45" t="n" s="0">
-        <v>13.0</v>
-      </c>
       <c r="H45" s="16">
         <f t="shared" si="0"/>
         <v>13.5</v>
@@ -3159,9 +3032,6 @@
       <c r="F46" s="17">
         <v>12</v>
       </c>
-      <c r="G46" t="n" s="0">
-        <v>13.0</v>
-      </c>
       <c r="H46" s="16">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -3183,9 +3053,6 @@
       <c r="F47" s="17">
         <v>10</v>
       </c>
-      <c r="G47" t="n" s="0">
-        <v>12.0</v>
-      </c>
       <c r="H47" s="16">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -3207,9 +3074,6 @@
       <c r="F48" s="17">
         <v>17</v>
       </c>
-      <c r="G48" t="n" s="0">
-        <v>17.0</v>
-      </c>
       <c r="H48" s="16">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -3231,9 +3095,6 @@
       <c r="F49" s="17">
         <v>18</v>
       </c>
-      <c r="G49" t="n" s="0">
-        <v>12.0</v>
-      </c>
       <c r="H49" s="16">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -3255,9 +3116,6 @@
       <c r="F50" s="17">
         <v>21</v>
       </c>
-      <c r="G50" t="n" s="0">
-        <v>9.0</v>
-      </c>
       <c r="H50" s="16">
         <f t="shared" si="0"/>
         <v>18.5</v>
@@ -3279,9 +3137,6 @@
       <c r="F51" s="17">
         <v>14</v>
       </c>
-      <c r="G51" t="n" s="0">
-        <v>10.0</v>
-      </c>
       <c r="H51" s="16">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3303,9 +3158,6 @@
       <c r="F52" s="17">
         <v>13</v>
       </c>
-      <c r="G52" t="n" s="0">
-        <v>19.0</v>
-      </c>
       <c r="H52" s="16">
         <f t="shared" si="0"/>
         <v>13.5</v>
@@ -3327,9 +3179,6 @@
       <c r="F53" s="17">
         <v>13</v>
       </c>
-      <c r="G53" t="n" s="0">
-        <v>9.0</v>
-      </c>
       <c r="H53" s="16">
         <f t="shared" si="0"/>
         <v>12.5</v>
@@ -3351,9 +3200,6 @@
       <c r="F54" s="17">
         <v>14</v>
       </c>
-      <c r="G54" t="n" s="0">
-        <v>12.0</v>
-      </c>
       <c r="H54" s="16">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3375,9 +3221,6 @@
       <c r="F55" s="17">
         <v>14</v>
       </c>
-      <c r="G55" t="n" s="0">
-        <v>17.0</v>
-      </c>
       <c r="H55" s="16">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3399,9 +3242,6 @@
       <c r="F56" s="17">
         <v>19</v>
       </c>
-      <c r="G56" t="n" s="0">
-        <v>21.0</v>
-      </c>
       <c r="H56" s="16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3423,9 +3263,6 @@
       <c r="F57" s="17">
         <v>20</v>
       </c>
-      <c r="G57" t="n" s="0">
-        <v>44.0</v>
-      </c>
       <c r="H57" s="16">
         <f t="shared" si="0"/>
         <v>14.5</v>
@@ -3447,9 +3284,6 @@
       <c r="F58" s="17">
         <v>16</v>
       </c>
-      <c r="G58" t="n" s="0">
-        <v>13.0</v>
-      </c>
       <c r="H58" s="16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3471,9 +3305,6 @@
       <c r="F59" s="17">
         <v>17</v>
       </c>
-      <c r="G59" t="n" s="0">
-        <v>13.0</v>
-      </c>
       <c r="H59" s="16">
         <f t="shared" si="0"/>
         <v>14.5</v>
@@ -3495,9 +3326,6 @@
       <c r="F60" s="17">
         <v>46</v>
       </c>
-      <c r="G60" t="n" s="0">
-        <v>12.0</v>
-      </c>
       <c r="H60" s="16">
         <f t="shared" si="0"/>
         <v>31.5</v>
@@ -3519,9 +3347,6 @@
       <c r="F61" s="17">
         <v>26</v>
       </c>
-      <c r="G61" t="n" s="0">
-        <v>28.0</v>
-      </c>
       <c r="H61" s="16">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -3543,9 +3368,6 @@
       <c r="F62" s="17">
         <v>20</v>
       </c>
-      <c r="G62" t="n" s="0">
-        <v>15.0</v>
-      </c>
       <c r="H62" s="16">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3567,9 +3389,6 @@
       <c r="F63" s="17">
         <v>43</v>
       </c>
-      <c r="G63" t="n" s="0">
-        <v>18.0</v>
-      </c>
       <c r="H63" s="16">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -3591,9 +3410,6 @@
       <c r="F64" s="17">
         <v>54</v>
       </c>
-      <c r="G64" t="n" s="0">
-        <v>18.0</v>
-      </c>
       <c r="H64" s="16">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -3615,9 +3431,6 @@
       <c r="F65" s="17">
         <v>12</v>
       </c>
-      <c r="G65" t="n" s="0">
-        <v>18.0</v>
-      </c>
       <c r="H65" s="16">
         <f t="shared" si="0"/>
         <v>12.5</v>
@@ -3639,9 +3452,6 @@
       <c r="F66" s="17">
         <v>13</v>
       </c>
-      <c r="G66" t="n" s="0">
-        <v>16.0</v>
-      </c>
       <c r="H66" s="16">
         <f t="shared" si="0"/>
         <v>13.5</v>
@@ -3663,9 +3473,6 @@
       <c r="F67" s="17">
         <v>24</v>
       </c>
-      <c r="G67" t="n" s="0">
-        <v>16.0</v>
-      </c>
       <c r="H67" s="16">
         <f t="shared" si="0"/>
         <v>19.5</v>
@@ -3687,9 +3494,6 @@
       <c r="F68" s="17">
         <v>13</v>
       </c>
-      <c r="G68" t="n" s="0">
-        <v>16.0</v>
-      </c>
       <c r="H68" s="16">
         <f t="shared" si="0"/>
         <v>11.5</v>
@@ -3711,9 +3515,6 @@
       <c r="F69" s="17">
         <v>48</v>
       </c>
-      <c r="G69" t="n" s="0">
-        <v>13.0</v>
-      </c>
       <c r="H69" s="16">
         <f t="shared" ref="H69:H80" si="1">AVERAGE(E69:G69)</f>
         <v>30.5</v>
@@ -3735,9 +3536,6 @@
       <c r="F70" s="17">
         <v>11</v>
       </c>
-      <c r="G70" t="n" s="0">
-        <v>18.0</v>
-      </c>
       <c r="H70" s="16">
         <f t="shared" si="1"/>
         <v>13.5</v>
@@ -3759,9 +3557,6 @@
       <c r="F71" s="17">
         <v>14</v>
       </c>
-      <c r="G71" t="n" s="0">
-        <v>18.0</v>
-      </c>
       <c r="H71" s="16">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -3783,9 +3578,6 @@
       <c r="F72" s="17">
         <v>13</v>
       </c>
-      <c r="G72" t="n" s="0">
-        <v>48.0</v>
-      </c>
       <c r="H72" s="16">
         <f t="shared" si="1"/>
         <v>33.5</v>
@@ -3807,9 +3599,6 @@
       <c r="F73" s="17">
         <v>16</v>
       </c>
-      <c r="G73" t="n" s="0">
-        <v>43.0</v>
-      </c>
       <c r="H73" s="16">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -3831,9 +3620,6 @@
       <c r="F74" s="17">
         <v>11</v>
       </c>
-      <c r="G74" t="n" s="0">
-        <v>20.0</v>
-      </c>
       <c r="H74" s="16">
         <f t="shared" si="1"/>
         <v>13.5</v>
@@ -3855,9 +3641,6 @@
       <c r="F75" s="17">
         <v>10</v>
       </c>
-      <c r="G75" t="n" s="0">
-        <v>15.0</v>
-      </c>
       <c r="H75" s="16">
         <f t="shared" si="1"/>
         <v>11.5</v>
@@ -3879,9 +3662,6 @@
       <c r="F76" s="17">
         <v>14</v>
       </c>
-      <c r="G76" t="n" s="0">
-        <v>21.0</v>
-      </c>
       <c r="H76" s="16">
         <f t="shared" si="1"/>
         <v>13.5</v>
@@ -3903,9 +3683,6 @@
       <c r="F77" s="17">
         <v>15</v>
       </c>
-      <c r="G77" t="n" s="0">
-        <v>18.0</v>
-      </c>
       <c r="H77" s="16">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -3927,9 +3704,6 @@
       <c r="F78" s="17">
         <v>13</v>
       </c>
-      <c r="G78" t="n" s="0">
-        <v>16.0</v>
-      </c>
       <c r="H78" s="16">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -3951,9 +3725,6 @@
       <c r="F79" s="17">
         <v>9</v>
       </c>
-      <c r="G79" t="n" s="0">
-        <v>15.0</v>
-      </c>
       <c r="H79" s="16">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -3974,9 +3745,6 @@
       </c>
       <c r="F80" s="18">
         <v>8</v>
-      </c>
-      <c r="G80" t="n" s="0">
-        <v>18.0</v>
       </c>
       <c r="H80" s="28">
         <f t="shared" si="1"/>
@@ -4000,9 +3768,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="23.83203125"/>
-    <col min="4" max="4" customWidth="true" width="19.83203125"/>
-    <col min="5" max="5" customWidth="true" width="17.6640625"/>
+    <col min="3" max="3" width="23.83203125" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="3:5" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>

--- a/documentation/PerformanceApplicativo.xlsx
+++ b/documentation/PerformanceApplicativo.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattiamarilli/Progetti/unifi_phd/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7AEE0D3-1181-CA45-B21D-CD339640685F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DEA2001-C48C-3548-9B86-78BC1BA930F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15780" xr2:uid="{13C5857E-3D3E-1E45-AA8C-1ACFF6915785}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{13C5857E-3D3E-1E45-AA8C-1ACFF6915785}"/>
   </bookViews>
   <sheets>
     <sheet name="Performance" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -349,6 +349,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1967,25 +1968,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4D86C7-BAC5-3E45-99C7-0E8BFC9440CB}">
   <dimension ref="B3:S80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:G80"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="40" customWidth="1"/>
-    <col min="3" max="3" width="56.1640625" customWidth="1"/>
-    <col min="4" max="4" width="26.83203125" customWidth="1"/>
-    <col min="5" max="5" width="30.33203125" customWidth="1"/>
-    <col min="6" max="6" width="28.33203125" customWidth="1"/>
-    <col min="7" max="7" width="29.33203125" customWidth="1"/>
-    <col min="8" max="8" width="25.1640625" customWidth="1"/>
-    <col min="9" max="9" width="20.1640625" customWidth="1"/>
-    <col min="10" max="10" width="23.83203125" customWidth="1"/>
-    <col min="11" max="11" width="19.33203125" customWidth="1"/>
-    <col min="12" max="12" width="15.33203125" customWidth="1"/>
-    <col min="13" max="13" width="18" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="14.6640625"/>
+    <col min="2" max="2" customWidth="true" width="40.0"/>
+    <col min="3" max="3" customWidth="true" width="56.1640625"/>
+    <col min="4" max="4" customWidth="true" width="26.83203125"/>
+    <col min="5" max="5" customWidth="true" width="30.33203125"/>
+    <col min="6" max="6" customWidth="true" width="28.33203125"/>
+    <col min="7" max="7" customWidth="true" width="29.33203125"/>
+    <col min="8" max="8" customWidth="true" width="25.1640625"/>
+    <col min="9" max="9" customWidth="true" width="20.1640625"/>
+    <col min="10" max="10" customWidth="true" width="23.83203125"/>
+    <col min="11" max="11" customWidth="true" width="19.33203125"/>
+    <col min="12" max="12" customWidth="true" width="15.33203125"/>
+    <col min="13" max="13" customWidth="true" width="18.0"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:19" ht="21" x14ac:dyDescent="0.25">
@@ -2027,6 +2028,9 @@
       <c r="F4" s="16">
         <v>47</v>
       </c>
+      <c r="G4" t="n" s="0">
+        <v>65.0</v>
+      </c>
       <c r="H4" s="16">
         <f>AVERAGE(E4:G4)</f>
         <v>41</v>
@@ -2048,6 +2052,9 @@
       <c r="F5" s="17">
         <v>18</v>
       </c>
+      <c r="G5" t="n" s="0">
+        <v>35.0</v>
+      </c>
       <c r="H5" s="16">
         <f t="shared" ref="H5:H68" si="0">AVERAGE(E5:G5)</f>
         <v>16.5</v>
@@ -2069,6 +2076,9 @@
       <c r="F6" s="17">
         <v>15</v>
       </c>
+      <c r="G6" t="n" s="0">
+        <v>66.0</v>
+      </c>
       <c r="H6" s="16">
         <f>AVERAGE(E6:G6)</f>
         <v>18.5</v>
@@ -2090,6 +2100,9 @@
       <c r="F7" s="17">
         <v>16</v>
       </c>
+      <c r="G7" t="n" s="0">
+        <v>21.0</v>
+      </c>
       <c r="H7" s="16">
         <f t="shared" si="0"/>
         <v>16.5</v>
@@ -2120,6 +2133,9 @@
       <c r="F8" s="17">
         <v>38</v>
       </c>
+      <c r="G8" t="n" s="0">
+        <v>43.0</v>
+      </c>
       <c r="H8" s="16">
         <f t="shared" si="0"/>
         <v>37.5</v>
@@ -2152,6 +2168,9 @@
       <c r="F9" s="17">
         <v>79</v>
       </c>
+      <c r="G9" t="n" s="0">
+        <v>49.0</v>
+      </c>
       <c r="H9" s="16">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -2184,6 +2203,9 @@
       <c r="F10" s="17">
         <v>20</v>
       </c>
+      <c r="G10" t="n" s="0">
+        <v>29.0</v>
+      </c>
       <c r="H10" s="16">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2216,6 +2238,9 @@
       <c r="F11" s="17">
         <v>18</v>
       </c>
+      <c r="G11" t="n" s="0">
+        <v>84.0</v>
+      </c>
       <c r="H11" s="16">
         <f t="shared" si="0"/>
         <v>17.5</v>
@@ -2248,6 +2273,9 @@
       <c r="F12" s="17">
         <v>20</v>
       </c>
+      <c r="G12" t="n" s="0">
+        <v>82.0</v>
+      </c>
       <c r="H12" s="16">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2269,6 +2297,9 @@
       <c r="F13" s="17">
         <v>16</v>
       </c>
+      <c r="G13" t="n" s="0">
+        <v>100.0</v>
+      </c>
       <c r="H13" s="16">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2290,6 +2321,9 @@
       <c r="F14" s="17">
         <v>20</v>
       </c>
+      <c r="G14" t="n" s="0">
+        <v>97.0</v>
+      </c>
       <c r="H14" s="16">
         <f t="shared" si="0"/>
         <v>17.5</v>
@@ -2311,14 +2345,17 @@
       <c r="F15" s="17">
         <v>14</v>
       </c>
+      <c r="G15" t="n" s="0">
+        <v>22.0</v>
+      </c>
       <c r="H15" s="16">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="R15">
-        <v>1</v>
-      </c>
-      <c r="S15">
+      <c r="R15" s="0">
+        <v>1</v>
+      </c>
+      <c r="S15" s="0">
         <f>AVERAGE(H5:H7,H10:H16,H18:H30,H32:H60,H62:H80)</f>
         <v>16.316901408450704</v>
       </c>
@@ -2339,20 +2376,23 @@
       <c r="F16" s="17">
         <v>17</v>
       </c>
+      <c r="G16" t="n" s="0">
+        <v>37.0</v>
+      </c>
       <c r="H16" s="16">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="R16">
+      <c r="R16" s="0">
         <v>2</v>
       </c>
-      <c r="S16">
+      <c r="S16" s="0">
         <f>AVERAGE(H8,H31,H61)</f>
         <v>38</v>
       </c>
@@ -2373,22 +2413,25 @@
       <c r="F17" s="17">
         <v>147</v>
       </c>
+      <c r="G17" t="n" s="0">
+        <v>55.0</v>
+      </c>
       <c r="H17" s="16">
         <f t="shared" si="0"/>
         <v>130</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="0">
         <f>AVERAGE(E4, E8:E9, E17,E31,E61)</f>
         <v>54.166666666666664</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="0">
         <f>AVERAGE(E5:E7,E10:E16,E18:E30,E32:E60,E62:E80)</f>
         <v>15.633802816901408</v>
       </c>
-      <c r="R17">
+      <c r="R17" s="0">
         <v>3</v>
       </c>
-      <c r="S17">
+      <c r="S17" s="0">
         <f>AVERAGE(H4)</f>
         <v>41</v>
       </c>
@@ -2409,14 +2452,17 @@
       <c r="F18" s="17">
         <v>15</v>
       </c>
+      <c r="G18" t="n" s="0">
+        <v>21.0</v>
+      </c>
       <c r="H18" s="16">
         <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
-      <c r="R18">
+      <c r="R18" s="0">
         <v>4</v>
       </c>
-      <c r="S18">
+      <c r="S18" s="0">
         <f>AVERAGE(H9,H17)</f>
         <v>97.5</v>
       </c>
@@ -2437,6 +2483,9 @@
       <c r="F19" s="17">
         <v>27</v>
       </c>
+      <c r="G19" t="n" s="0">
+        <v>60.0</v>
+      </c>
       <c r="H19" s="16">
         <f t="shared" si="0"/>
         <v>20.5</v>
@@ -2458,6 +2507,9 @@
       <c r="F20" s="17">
         <v>13</v>
       </c>
+      <c r="G20" t="n" s="0">
+        <v>50.0</v>
+      </c>
       <c r="H20" s="16">
         <f t="shared" si="0"/>
         <v>11.5</v>
@@ -2479,6 +2531,9 @@
       <c r="F21" s="17">
         <v>13</v>
       </c>
+      <c r="G21" t="n" s="0">
+        <v>21.0</v>
+      </c>
       <c r="H21" s="16">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2500,6 +2555,9 @@
       <c r="F22" s="17">
         <v>10</v>
       </c>
+      <c r="G22" t="n" s="0">
+        <v>25.0</v>
+      </c>
       <c r="H22" s="16">
         <f t="shared" si="0"/>
         <v>10.5</v>
@@ -2520,6 +2578,9 @@
       </c>
       <c r="F23" s="17">
         <v>11</v>
+      </c>
+      <c r="G23" t="n" s="0">
+        <v>28.0</v>
       </c>
       <c r="H23" s="16">
         <f t="shared" si="0"/>
@@ -3768,9 +3829,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="23.83203125" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" customWidth="true" width="23.83203125"/>
+    <col min="4" max="4" customWidth="true" width="19.83203125"/>
+    <col min="5" max="5" customWidth="true" width="17.6640625"/>
   </cols>
   <sheetData>
     <row r="4" spans="3:5" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>

--- a/documentation/PerformanceApplicativo.xlsx
+++ b/documentation/PerformanceApplicativo.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattiamarilli/Progetti/unifi_phd/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DEA2001-C48C-3548-9B86-78BC1BA930F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7E736D-45D6-8B4C-A3A4-046296F2FE6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{13C5857E-3D3E-1E45-AA8C-1ACFF6915785}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -349,7 +349,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -752,16 +751,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>16.316901408450704</c:v>
+                  <c:v>18.730046948356808</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>38</c:v>
+                  <c:v>38.611111111111114</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>97.5</c:v>
+                  <c:v>82.333333333333329</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1968,25 +1967,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4D86C7-BAC5-3E45-99C7-0E8BFC9440CB}">
   <dimension ref="B3:S80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:R112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.6640625"/>
-    <col min="2" max="2" customWidth="true" width="40.0"/>
-    <col min="3" max="3" customWidth="true" width="56.1640625"/>
-    <col min="4" max="4" customWidth="true" width="26.83203125"/>
-    <col min="5" max="5" customWidth="true" width="30.33203125"/>
-    <col min="6" max="6" customWidth="true" width="28.33203125"/>
-    <col min="7" max="7" customWidth="true" width="29.33203125"/>
-    <col min="8" max="8" customWidth="true" width="25.1640625"/>
-    <col min="9" max="9" customWidth="true" width="20.1640625"/>
-    <col min="10" max="10" customWidth="true" width="23.83203125"/>
-    <col min="11" max="11" customWidth="true" width="19.33203125"/>
-    <col min="12" max="12" customWidth="true" width="15.33203125"/>
-    <col min="13" max="13" customWidth="true" width="18.0"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="40" customWidth="1"/>
+    <col min="3" max="3" width="56.1640625" customWidth="1"/>
+    <col min="4" max="4" width="26.83203125" customWidth="1"/>
+    <col min="5" max="5" width="30.33203125" customWidth="1"/>
+    <col min="6" max="6" width="28.33203125" customWidth="1"/>
+    <col min="7" max="7" width="29.33203125" customWidth="1"/>
+    <col min="8" max="8" width="25.1640625" customWidth="1"/>
+    <col min="9" max="9" width="20.1640625" customWidth="1"/>
+    <col min="10" max="10" width="23.83203125" customWidth="1"/>
+    <col min="11" max="11" width="19.33203125" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" customWidth="1"/>
+    <col min="13" max="13" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:19" ht="21" x14ac:dyDescent="0.25">
@@ -2028,12 +2027,12 @@
       <c r="F4" s="16">
         <v>47</v>
       </c>
-      <c r="G4" t="n" s="0">
-        <v>65.0</v>
+      <c r="G4">
+        <v>65</v>
       </c>
       <c r="H4" s="16">
         <f>AVERAGE(E4:G4)</f>
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.2">
@@ -2052,12 +2051,12 @@
       <c r="F5" s="17">
         <v>18</v>
       </c>
-      <c r="G5" t="n" s="0">
-        <v>35.0</v>
+      <c r="G5">
+        <v>35</v>
       </c>
       <c r="H5" s="16">
         <f t="shared" ref="H5:H68" si="0">AVERAGE(E5:G5)</f>
-        <v>16.5</v>
+        <v>22.666666666666668</v>
       </c>
     </row>
     <row r="6" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2076,12 +2075,12 @@
       <c r="F6" s="17">
         <v>15</v>
       </c>
-      <c r="G6" t="n" s="0">
-        <v>66.0</v>
+      <c r="G6">
+        <v>66</v>
       </c>
       <c r="H6" s="16">
         <f>AVERAGE(E6:G6)</f>
-        <v>18.5</v>
+        <v>34.333333333333336</v>
       </c>
     </row>
     <row r="7" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2100,12 +2099,12 @@
       <c r="F7" s="17">
         <v>16</v>
       </c>
-      <c r="G7" t="n" s="0">
-        <v>21.0</v>
+      <c r="G7">
+        <v>21</v>
       </c>
       <c r="H7" s="16">
         <f t="shared" si="0"/>
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>88</v>
@@ -2133,12 +2132,12 @@
       <c r="F8" s="17">
         <v>38</v>
       </c>
-      <c r="G8" t="n" s="0">
-        <v>43.0</v>
+      <c r="G8">
+        <v>43</v>
       </c>
       <c r="H8" s="16">
         <f t="shared" si="0"/>
-        <v>37.5</v>
+        <v>39.333333333333336</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>3</v>
@@ -2168,12 +2167,12 @@
       <c r="F9" s="17">
         <v>79</v>
       </c>
-      <c r="G9" t="n" s="0">
-        <v>49.0</v>
+      <c r="G9">
+        <v>49</v>
       </c>
       <c r="H9" s="16">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>59.666666666666664</v>
       </c>
       <c r="K9" s="8" t="s">
         <v>20</v>
@@ -2203,12 +2202,12 @@
       <c r="F10" s="17">
         <v>20</v>
       </c>
-      <c r="G10" t="n" s="0">
-        <v>29.0</v>
+      <c r="G10">
+        <v>29</v>
       </c>
       <c r="H10" s="16">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>22.333333333333332</v>
       </c>
       <c r="K10" s="8" t="s">
         <v>54</v>
@@ -2238,12 +2237,12 @@
       <c r="F11" s="17">
         <v>18</v>
       </c>
-      <c r="G11" t="n" s="0">
-        <v>84.0</v>
+      <c r="G11">
+        <v>84</v>
       </c>
       <c r="H11" s="16">
         <f t="shared" si="0"/>
-        <v>17.5</v>
+        <v>39.666666666666664</v>
       </c>
       <c r="K11" s="9" t="s">
         <v>66</v>
@@ -2273,12 +2272,12 @@
       <c r="F12" s="17">
         <v>20</v>
       </c>
-      <c r="G12" t="n" s="0">
-        <v>82.0</v>
+      <c r="G12">
+        <v>82</v>
       </c>
       <c r="H12" s="16">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.2">
@@ -2297,12 +2296,12 @@
       <c r="F13" s="17">
         <v>16</v>
       </c>
-      <c r="G13" t="n" s="0">
-        <v>100.0</v>
+      <c r="G13">
+        <v>100</v>
       </c>
       <c r="H13" s="16">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>45.333333333333336</v>
       </c>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.2">
@@ -2321,12 +2320,12 @@
       <c r="F14" s="17">
         <v>20</v>
       </c>
-      <c r="G14" t="n" s="0">
-        <v>97.0</v>
+      <c r="G14">
+        <v>97</v>
       </c>
       <c r="H14" s="16">
         <f t="shared" si="0"/>
-        <v>17.5</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.2">
@@ -2345,19 +2344,19 @@
       <c r="F15" s="17">
         <v>14</v>
       </c>
-      <c r="G15" t="n" s="0">
-        <v>22.0</v>
+      <c r="G15">
+        <v>22</v>
       </c>
       <c r="H15" s="16">
         <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="R15" s="0">
-        <v>1</v>
-      </c>
-      <c r="S15" s="0">
+        <v>18.666666666666668</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15">
         <f>AVERAGE(H5:H7,H10:H16,H18:H30,H32:H60,H62:H80)</f>
-        <v>16.316901408450704</v>
+        <v>18.730046948356808</v>
       </c>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.2">
@@ -2376,25 +2375,25 @@
       <c r="F16" s="17">
         <v>17</v>
       </c>
-      <c r="G16" t="n" s="0">
-        <v>37.0</v>
+      <c r="G16">
+        <v>37</v>
       </c>
       <c r="H16" s="16">
         <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="J16" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J16" t="s">
         <v>92</v>
       </c>
-      <c r="K16" t="s" s="0">
+      <c r="K16" t="s">
         <v>93</v>
       </c>
-      <c r="R16" s="0">
+      <c r="R16">
         <v>2</v>
       </c>
-      <c r="S16" s="0">
+      <c r="S16">
         <f>AVERAGE(H8,H31,H61)</f>
-        <v>38</v>
+        <v>38.611111111111114</v>
       </c>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.2">
@@ -2413,27 +2412,27 @@
       <c r="F17" s="17">
         <v>147</v>
       </c>
-      <c r="G17" t="n" s="0">
-        <v>55.0</v>
+      <c r="G17">
+        <v>55</v>
       </c>
       <c r="H17" s="16">
         <f t="shared" si="0"/>
-        <v>130</v>
-      </c>
-      <c r="J17" s="0">
+        <v>105</v>
+      </c>
+      <c r="J17">
         <f>AVERAGE(E4, E8:E9, E17,E31,E61)</f>
         <v>54.166666666666664</v>
       </c>
-      <c r="K17" s="0">
+      <c r="K17">
         <f>AVERAGE(E5:E7,E10:E16,E18:E30,E32:E60,E62:E80)</f>
         <v>15.633802816901408</v>
       </c>
-      <c r="R17" s="0">
+      <c r="R17">
         <v>3</v>
       </c>
-      <c r="S17" s="0">
+      <c r="S17">
         <f>AVERAGE(H4)</f>
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.2">
@@ -2452,19 +2451,19 @@
       <c r="F18" s="17">
         <v>15</v>
       </c>
-      <c r="G18" t="n" s="0">
-        <v>21.0</v>
+      <c r="G18">
+        <v>21</v>
       </c>
       <c r="H18" s="16">
         <f t="shared" si="0"/>
-        <v>12.5</v>
-      </c>
-      <c r="R18" s="0">
+        <v>15.333333333333334</v>
+      </c>
+      <c r="R18">
         <v>4</v>
       </c>
-      <c r="S18" s="0">
+      <c r="S18">
         <f>AVERAGE(H9,H17)</f>
-        <v>97.5</v>
+        <v>82.333333333333329</v>
       </c>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.2">
@@ -2483,12 +2482,12 @@
       <c r="F19" s="17">
         <v>27</v>
       </c>
-      <c r="G19" t="n" s="0">
-        <v>60.0</v>
+      <c r="G19">
+        <v>60</v>
       </c>
       <c r="H19" s="16">
         <f t="shared" si="0"/>
-        <v>20.5</v>
+        <v>33.666666666666664</v>
       </c>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.2">
@@ -2507,12 +2506,12 @@
       <c r="F20" s="17">
         <v>13</v>
       </c>
-      <c r="G20" t="n" s="0">
-        <v>50.0</v>
+      <c r="G20">
+        <v>50</v>
       </c>
       <c r="H20" s="16">
         <f t="shared" si="0"/>
-        <v>11.5</v>
+        <v>24.333333333333332</v>
       </c>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.2">
@@ -2531,12 +2530,12 @@
       <c r="F21" s="17">
         <v>13</v>
       </c>
-      <c r="G21" t="n" s="0">
-        <v>21.0</v>
+      <c r="G21">
+        <v>21</v>
       </c>
       <c r="H21" s="16">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17.666666666666668</v>
       </c>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.2">
@@ -2555,12 +2554,12 @@
       <c r="F22" s="17">
         <v>10</v>
       </c>
-      <c r="G22" t="n" s="0">
-        <v>25.0</v>
+      <c r="G22">
+        <v>25</v>
       </c>
       <c r="H22" s="16">
         <f t="shared" si="0"/>
-        <v>10.5</v>
+        <v>15.333333333333334</v>
       </c>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.2">
@@ -2579,12 +2578,12 @@
       <c r="F23" s="17">
         <v>11</v>
       </c>
-      <c r="G23" t="n" s="0">
-        <v>28.0</v>
+      <c r="G23">
+        <v>28</v>
       </c>
       <c r="H23" s="16">
         <f t="shared" si="0"/>
-        <v>14.5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.2">
@@ -2705,19 +2704,19 @@
       </c>
       <c r="J28" s="22">
         <f>AVERAGE(H5:H7,H10:H16,H18:H30,H32:H60,H62:H80)</f>
-        <v>16.316901408450704</v>
+        <v>18.730046948356808</v>
       </c>
       <c r="K28" s="23">
         <f>AVERAGE(H8,H31,H61)</f>
-        <v>38</v>
+        <v>38.611111111111114</v>
       </c>
       <c r="L28" s="23">
         <f>AVERAGE(H4)</f>
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="M28" s="24">
         <f>AVERAGE(H9,H17)</f>
-        <v>97.5</v>
+        <v>82.333333333333329</v>
       </c>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.2">
@@ -3829,9 +3828,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="23.83203125"/>
-    <col min="4" max="4" customWidth="true" width="19.83203125"/>
-    <col min="5" max="5" customWidth="true" width="17.6640625"/>
+    <col min="3" max="3" width="23.83203125" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="3:5" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>

--- a/documentation/PerformanceApplicativo.xlsx
+++ b/documentation/PerformanceApplicativo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattiamarilli/Progetti/unifi_phd/documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giacomoponzuoli/Desktop/unifi_phd/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7E736D-45D6-8B4C-A3A4-046296F2FE6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5164B901-F6FC-7D42-AE5C-20D42CD00151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{13C5857E-3D3E-1E45-AA8C-1ACFF6915785}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15780" xr2:uid="{13C5857E-3D3E-1E45-AA8C-1ACFF6915785}"/>
   </bookViews>
   <sheets>
     <sheet name="Performance" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="103">
   <si>
     <t>Caso d'uso</t>
   </si>
@@ -343,6 +343,9 @@
   </si>
   <si>
     <t>Media latenza</t>
+  </si>
+  <si>
+    <t>Nr. Package coinvolti</t>
   </si>
 </sst>
 </file>
@@ -603,7 +606,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -670,6 +673,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1967,8 +1973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4D86C7-BAC5-3E45-99C7-0E8BFC9440CB}">
   <dimension ref="B3:S80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:R112"/>
+    <sheetView tabSelected="1" topLeftCell="F22" zoomScale="112" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2803,7 +2809,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B33" s="14" t="s">
         <v>33</v>
       </c>
@@ -2824,7 +2830,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B34" s="14" t="s">
         <v>34</v>
       </c>
@@ -2845,7 +2851,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B35" s="14" t="s">
         <v>35</v>
       </c>
@@ -2865,8 +2871,14 @@
         <f t="shared" si="0"/>
         <v>8.5</v>
       </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="J35" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="K35" s="29" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B36" s="14" t="s">
         <v>36</v>
       </c>
@@ -2886,8 +2898,14 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="J36" s="16">
+        <v>1</v>
+      </c>
+      <c r="K36" s="16">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B37" s="14" t="s">
         <v>38</v>
       </c>
@@ -2907,8 +2925,14 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="J37" s="17">
+        <v>2</v>
+      </c>
+      <c r="K37" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B38" s="14" t="s">
         <v>84</v>
       </c>
@@ -2928,8 +2952,14 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="J38" s="17">
+        <v>3</v>
+      </c>
+      <c r="K38" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B39" s="14" t="s">
         <v>39</v>
       </c>
@@ -2949,8 +2979,14 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="J39" s="18">
+        <v>4</v>
+      </c>
+      <c r="K39" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B40" s="14" t="s">
         <v>40</v>
       </c>
@@ -2971,7 +3007,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B41" s="14" t="s">
         <v>41</v>
       </c>
@@ -2992,7 +3028,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B42" s="14" t="s">
         <v>42</v>
       </c>
@@ -3013,7 +3049,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B43" s="14" t="s">
         <v>43</v>
       </c>
@@ -3034,7 +3070,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B44" s="14" t="s">
         <v>44</v>
       </c>
@@ -3055,7 +3091,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B45" s="14" t="s">
         <v>45</v>
       </c>
@@ -3076,7 +3112,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B46" s="14" t="s">
         <v>47</v>
       </c>
@@ -3097,7 +3133,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B47" s="14" t="s">
         <v>48</v>
       </c>
@@ -3118,7 +3154,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B48" s="14" t="s">
         <v>46</v>
       </c>

--- a/documentation/PerformanceApplicativo.xlsx
+++ b/documentation/PerformanceApplicativo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giacomoponzuoli/Desktop/unifi_phd/documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattiamarilli/Progetti/unifi_phd/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5164B901-F6FC-7D42-AE5C-20D42CD00151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3FD2F0-DD55-6F4C-BFE7-18A7F7E6D0BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15780" xr2:uid="{13C5857E-3D3E-1E45-AA8C-1ACFF6915785}"/>
   </bookViews>
@@ -1077,7 +1077,414 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Performance!$O$33:$O$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Performance!$P$33:$P$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>18.730046949999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38.611111110000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>82.333333330000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A9CF-8E47-8931-8D76024ADE38}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="905787087"/>
+        <c:axId val="905895951"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="905787087"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Numero dei package</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" baseline="0"/>
+                  <a:t> coinvolti</a:t>
+                </a:r>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="905895951"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="905895951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Latenza</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" baseline="0"/>
+                  <a:t> di risposta (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="905787087"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1614,6 +2021,509 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1666,6 +2576,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>276679</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>74159</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>6804</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>163967</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Grafico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7958BB79-6B45-24E7-596C-62782569930E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1973,8 +2919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4D86C7-BAC5-3E45-99C7-0E8BFC9440CB}">
   <dimension ref="B3:S80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F22" zoomScale="112" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView tabSelected="1" topLeftCell="G15" zoomScale="112" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2809,7 +3755,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B33" s="14" t="s">
         <v>33</v>
       </c>
@@ -2829,8 +3775,14 @@
         <f t="shared" si="0"/>
         <v>8.5</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="O33">
+        <v>1</v>
+      </c>
+      <c r="P33">
+        <v>18.730046949999998</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B34" s="14" t="s">
         <v>34</v>
       </c>
@@ -2850,8 +3802,14 @@
         <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="O34">
+        <v>2</v>
+      </c>
+      <c r="P34">
+        <v>38.611111110000003</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B35" s="14" t="s">
         <v>35</v>
       </c>
@@ -2877,8 +3835,14 @@
       <c r="K35" s="29" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="O35">
+        <v>3</v>
+      </c>
+      <c r="P35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B36" s="14" t="s">
         <v>36</v>
       </c>
@@ -2904,8 +3868,14 @@
       <c r="K36" s="16">
         <v>70</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="O36">
+        <v>4</v>
+      </c>
+      <c r="P36">
+        <v>82.333333330000002</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="14" t="s">
         <v>38</v>
       </c>
@@ -2932,7 +3902,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B38" s="14" t="s">
         <v>84</v>
       </c>
@@ -2959,7 +3929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B39" s="14" t="s">
         <v>39</v>
       </c>
@@ -2986,7 +3956,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B40" s="14" t="s">
         <v>40</v>
       </c>
@@ -3007,7 +3977,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B41" s="14" t="s">
         <v>41</v>
       </c>
@@ -3028,7 +3998,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B42" s="14" t="s">
         <v>42</v>
       </c>
@@ -3049,7 +4019,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B43" s="14" t="s">
         <v>43</v>
       </c>
@@ -3070,7 +4040,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B44" s="14" t="s">
         <v>44</v>
       </c>
@@ -3091,7 +4061,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B45" s="14" t="s">
         <v>45</v>
       </c>
@@ -3112,7 +4082,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B46" s="14" t="s">
         <v>47</v>
       </c>
@@ -3133,7 +4103,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B47" s="14" t="s">
         <v>48</v>
       </c>
@@ -3154,7 +4124,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B48" s="14" t="s">
         <v>46</v>
       </c>
